--- a/ml/stock_data/buy_sell_labels/HD.xlsx
+++ b/ml/stock_data/buy_sell_labels/HD.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cefadc21042b88c/PET_PROJECTS/Al-the-Trader/ml/stock_data/buy_sell_labels/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_050D37BF424AF64FE4296495425DCE3A87468D9C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C60110DA-1626-448C-8F3A-F83FB8BA3560}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,18 +49,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -85,25 +60,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -391,7085 +357,7090 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>43122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>192.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43122</v>
-      </c>
-      <c r="C2">
-        <v>192.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>43123</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>192.61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>43124</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>193.85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>43125</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>193.05</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>43126</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>194.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>43129</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>192.63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>43130</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>189.71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>188.85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>187.91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>43133</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>182.34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>43136</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>172.13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>43137</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>179.58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>43138</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>179.82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>43139</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>170.35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>43140</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>173.08</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>43143</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>173.02</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>43144</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>172.7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>43145</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>173.61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>43146</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>174.16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>43147</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>175.76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>43151</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>175.51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>43152</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>172.08</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>43153</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>174.35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>43154</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>177.06</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>43157</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>177.16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>43158</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>173.89</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>43159</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>171.34</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>168.87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>43161</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>167.76</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>43164</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>170.84</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>43165</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>170.75</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>43166</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>168.83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>43167</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>168.22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>43168</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>172.21</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>43171</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>169.9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>43172</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>168.61</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>43173</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>167.72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>43174</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>168.35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>43175</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>169.19</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>43178</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>167.43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>43179</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>168.43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>43180</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>168.3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>43181</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>165.72</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>43182</v>
       </c>
-      <c r="C45">
-        <v>162.41999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="C45" t="n">
+        <v>162.42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>43185</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>166.75</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="2" t="n">
         <v>43186</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>165.14</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="2" t="n">
         <v>43187</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>165.22</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="2" t="n">
         <v>43188</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>168.51</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="2" t="n">
         <v>43192</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>163.46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="2" t="n">
         <v>43193</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>164.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="2" t="n">
         <v>43194</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>167.75</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="2" t="n">
         <v>43195</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>169.35</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="2" t="n">
         <v>43196</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>164.92</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="2" t="n">
         <v>43199</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>163.09</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="2" t="n">
         <v>43200</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>164.02</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="2" t="n">
         <v>43201</v>
       </c>
-      <c r="C57">
-        <v>163.41999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="C57" t="n">
+        <v>163.42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="2" t="n">
         <v>43202</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>163.89</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="2" t="n">
         <v>43203</v>
       </c>
-      <c r="C59">
-        <v>163.36000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="C59" t="n">
+        <v>163.36</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="2" t="n">
         <v>43206</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>164.91</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="2" t="n">
         <v>43207</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>165.36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="2" t="n">
         <v>43208</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>170.03</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="2" t="n">
         <v>43209</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>167.41</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="2" t="n">
         <v>43210</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>167.34</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="2" t="n">
         <v>43213</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>167.96</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="2" t="n">
         <v>43214</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>166.64</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="2" t="n">
         <v>43215</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>167.7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="2" t="n">
         <v>43216</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>175.58</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="2" t="n">
         <v>43217</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>176.28</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="2" t="n">
         <v>43220</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>174.71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>174.55</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="2" t="n">
         <v>43222</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>175.76</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="2" t="n">
         <v>43223</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>173.19</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="2" t="n">
         <v>43224</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>174.93</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="2" t="n">
         <v>43227</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>173.54</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="2" t="n">
         <v>43228</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>174.94</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="2" t="n">
         <v>43229</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>176.18</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="2" t="n">
         <v>43230</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>176.94</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="2" t="n">
         <v>43231</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>179.92</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="2" t="n">
         <v>43234</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>180.65</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="2" t="n">
         <v>43235</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>177.72</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="2" t="n">
         <v>43236</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>176.2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="2" t="n">
         <v>43237</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>175.21</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="2" t="n">
         <v>43238</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>177.19</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="2" t="n">
         <v>43241</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>179.43</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="2" t="n">
         <v>43242</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>176.67</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="2" t="n">
         <v>43243</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>176.48</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="2" t="n">
         <v>43244</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>176.93</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="2" t="n">
         <v>43245</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>176.65</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="2" t="n">
         <v>43249</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>174.9</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="2" t="n">
         <v>43250</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>177.86</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="2" t="n">
         <v>43251</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>177.35</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>178.11</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="2" t="n">
         <v>43255</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>181.92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="2" t="n">
         <v>43256</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>182.47</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="96">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="2" t="n">
         <v>43257</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>184.04</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="97">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="2" t="n">
         <v>43258</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>186.5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="2" t="n">
         <v>43259</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>188.55</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="2" t="n">
         <v>43262</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>189.8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="2" t="n">
         <v>43263</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>191.38</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="2" t="n">
         <v>43264</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>190.43</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="102">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="2" t="n">
         <v>43265</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>189.82</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="103">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="2" t="n">
         <v>43266</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>190.65</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="2" t="n">
         <v>43269</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>190.79</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="105">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="2" t="n">
         <v>43270</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>189.39</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="2" t="n">
         <v>43271</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>189.26</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="2" t="n">
         <v>43272</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>190.43</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="2" t="n">
         <v>43273</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>187.68</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="2" t="n">
         <v>43276</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>186.7</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="110">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="2" t="n">
         <v>43277</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>186.68</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="111">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="2" t="n">
         <v>43278</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>185.4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="112">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="2" t="n">
         <v>43279</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>185.58</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="113">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="2" t="n">
         <v>43280</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>185.48</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="114">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="2" t="n">
         <v>43283</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>184.45</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="115">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="2" t="n">
         <v>43284</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>184.07</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="2" t="n">
         <v>43286</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>184.82</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="117">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="2" t="n">
         <v>43287</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>184.89</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="118">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="2" t="n">
         <v>43290</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>186.41</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="119">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="2" t="n">
         <v>43291</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>187.87</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="120">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="2" t="n">
         <v>43292</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>187.24</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="121">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="2" t="n">
         <v>43293</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>188.19</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="122">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="2" t="n">
         <v>43294</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>188.89</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="123">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="2" t="n">
         <v>43297</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>189.07</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="124">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="2" t="n">
         <v>43298</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>191.18</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="125">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="2" t="n">
         <v>43299</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>191.06</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row r="126">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="2" t="n">
         <v>43300</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>192.64</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+    <row r="127">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="2" t="n">
         <v>43301</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>192.47</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="128">
+      <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="2" t="n">
         <v>43304</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>192.26</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row r="129">
+      <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="2" t="n">
         <v>43305</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>192.03</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row r="130">
+      <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="2" t="n">
         <v>43306</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>191.09</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="131">
+      <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="2" t="n">
         <v>43307</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>189.57</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row r="132">
+      <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="2" t="n">
         <v>43308</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>187.42</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row r="133">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="2" t="n">
         <v>43311</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>187.55</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+    <row r="134">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="2" t="n">
         <v>43312</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>187.78</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+    <row r="135">
+      <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>186.62</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+    <row r="136">
+      <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="2" t="n">
         <v>43314</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>186.01</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+    <row r="137">
+      <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="2" t="n">
         <v>43315</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>185.99</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+    <row r="138">
+      <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="2" t="n">
         <v>43318</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>186.04</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+    <row r="139">
+      <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="2" t="n">
         <v>43319</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>187.33</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+    <row r="140">
+      <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="2" t="n">
         <v>43320</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>188.26</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+    <row r="141">
+      <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="2" t="n">
         <v>43321</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>188.31</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row r="142">
+      <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="2" t="n">
         <v>43322</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>186.62</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row r="143">
+      <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="2" t="n">
         <v>43325</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>184.57</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+    <row r="144">
+      <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="2" t="n">
         <v>43326</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>183.58</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+    <row r="145">
+      <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="2" t="n">
         <v>43327</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>184.42</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="146">
+      <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="2" t="n">
         <v>43328</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>185.75</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+    <row r="147">
+      <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="2" t="n">
         <v>43329</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>185.92</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row r="148">
+      <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="2" t="n">
         <v>43332</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>188.17</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row r="149">
+      <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="2" t="n">
         <v>43333</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>190.36</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row r="150">
+      <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="2" t="n">
         <v>43334</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>189.16</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row r="151">
+      <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="2" t="n">
         <v>43335</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>190.29</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="152">
+      <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="2" t="n">
         <v>43336</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>191.37</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="153">
+      <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="2" t="n">
         <v>43339</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>192.02</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row r="154">
+      <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="2" t="n">
         <v>43340</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>192.01</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row r="155">
+      <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="2" t="n">
         <v>43341</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>192.72</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+    <row r="156">
+      <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="2" t="n">
         <v>43342</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>190.4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+    <row r="157">
+      <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="2" t="n">
         <v>43343</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>191.85</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+    <row r="158">
+      <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="2" t="n">
         <v>43347</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>195.97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+    <row r="159">
+      <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="2" t="n">
         <v>43348</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>195.08</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+    <row r="160">
+      <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="2" t="n">
         <v>43349</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>196.74</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+    <row r="161">
+      <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="2" t="n">
         <v>43350</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>197.07</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+    <row r="162">
+      <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="2" t="n">
         <v>43353</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>201.33</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+    <row r="163">
+      <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="2" t="n">
         <v>43354</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>204.35</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="164">
+      <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="2" t="n">
         <v>43355</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>202.56</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+    <row r="165">
+      <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="2" t="n">
         <v>43356</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>200.14</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+    <row r="166">
+      <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="2" t="n">
         <v>43357</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>199.78</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+    <row r="167">
+      <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="2" t="n">
         <v>43360</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>199.14</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+    <row r="168">
+      <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="2" t="n">
         <v>43361</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>201.64</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+    <row r="169">
+      <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="2" t="n">
         <v>43362</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>202.27</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+    <row r="170">
+      <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="2" t="n">
         <v>43363</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>201.68</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+    <row r="171">
+      <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="2" t="n">
         <v>43364</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>202.95</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+    <row r="172">
+      <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="2" t="n">
         <v>43367</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>198.75</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+    <row r="173">
+      <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="2" t="n">
         <v>43368</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>198.24</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+    <row r="174">
+      <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="2" t="n">
         <v>43369</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>198.3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+    <row r="175">
+      <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="2" t="n">
         <v>43370</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>197.65</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row r="176">
+      <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="2" t="n">
         <v>43371</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>197.94</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+    <row r="177">
+      <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>198.37</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+    <row r="178">
+      <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="2" t="n">
         <v>43375</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>195.65</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+    <row r="179">
+      <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="2" t="n">
         <v>43376</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>194.69</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+    <row r="180">
+      <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="2" t="n">
         <v>43377</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>190.01</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+    <row r="181">
+      <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="2" t="n">
         <v>43378</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>187.65</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+    <row r="182">
+      <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="2" t="n">
         <v>43381</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>189.59</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+    <row r="183">
+      <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="2" t="n">
         <v>43382</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>187.05</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+    <row r="184">
+      <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="2" t="n">
         <v>43383</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>185.09</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+    <row r="185">
+      <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="2" t="n">
         <v>43384</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>181.31</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+    <row r="186">
+      <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="2" t="n">
         <v>43385</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>183.92</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+    <row r="187">
+      <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="2" t="n">
         <v>43388</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>182.67</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+    <row r="188">
+      <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="2" t="n">
         <v>43389</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>184.98</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+    <row r="189">
+      <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="2" t="n">
         <v>43390</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>176.94</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+    <row r="190">
+      <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="2" t="n">
         <v>43391</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>172.42</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+    <row r="191">
+      <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="2" t="n">
         <v>43392</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>171.86</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+    <row r="192">
+      <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="2" t="n">
         <v>43395</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>170.81</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+    <row r="193">
+      <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="2" t="n">
         <v>43396</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>170.6</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+    <row r="194">
+      <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="2" t="n">
         <v>43397</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>169.11</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+    <row r="195">
+      <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="2" t="n">
         <v>43398</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>171.11</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+    <row r="196">
+      <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="2" t="n">
         <v>43399</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>164.58</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+    <row r="197">
+      <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="2" t="n">
         <v>43402</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>165.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+    <row r="198">
+      <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="2" t="n">
         <v>43403</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>168.41</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+    <row r="199">
+      <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="2" t="n">
         <v>43404</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>168.06</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+    <row r="200">
+      <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>172.44</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+    <row r="201">
+      <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="2" t="n">
         <v>43406</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>171.93</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+    <row r="202">
+      <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="2" t="n">
         <v>43409</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>174.09</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+    <row r="203">
+      <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="2" t="n">
         <v>43410</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>173.92</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+    <row r="204">
+      <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="2" t="n">
         <v>43411</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>178.91</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+    <row r="205">
+      <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="2" t="n">
         <v>43412</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>179.65</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+    <row r="206">
+      <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="2" t="n">
         <v>43413</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>177.72</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+    <row r="207">
+      <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="2" t="n">
         <v>43416</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>171.46</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+    <row r="208">
+      <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="2" t="n">
         <v>43417</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>171.05</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+    <row r="209">
+      <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="2" t="n">
         <v>43418</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>171.91</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+    <row r="210">
+      <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="2" t="n">
         <v>43419</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>169.48</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+    <row r="211">
+      <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="2" t="n">
         <v>43420</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>169.15</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+    <row r="212">
+      <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="2" t="n">
         <v>43423</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>165.88</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+    <row r="213">
+      <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="2" t="n">
         <v>43424</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>161.54</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row r="214">
+      <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="2" t="n">
         <v>43425</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>161.78</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+    <row r="215">
+      <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="2" t="n">
         <v>43427</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>161.35</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+    <row r="216">
+      <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="2" t="n">
         <v>43430</v>
       </c>
-      <c r="C216">
-        <v>162.27000000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+      <c r="C216" t="n">
+        <v>162.27</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="2" t="n">
         <v>43431</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>165.52</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+    <row r="218">
+      <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="2" t="n">
         <v>43432</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>170.56</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+    <row r="219">
+      <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="2" t="n">
         <v>43433</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>168.86</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+    <row r="220">
+      <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="2" t="n">
         <v>43434</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>173.34</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+    <row r="221">
+      <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="2" t="n">
         <v>43437</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>174.7</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+    <row r="222">
+      <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="2" t="n">
         <v>43438</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>168.51</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+    <row r="223">
+      <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="2" t="n">
         <v>43440</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>169.15</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+    <row r="224">
+      <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="2" t="n">
         <v>43441</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>166.1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+    <row r="225">
+      <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="2" t="n">
         <v>43444</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>165.04</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+    <row r="226">
+      <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="2" t="n">
         <v>43445</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>165.54</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+    <row r="227">
+      <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="2" t="n">
         <v>43446</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>167.46</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+    <row r="228">
+      <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="2" t="n">
         <v>43447</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>167.14</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+    <row r="229">
+      <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="2" t="n">
         <v>43448</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>165.62</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+    <row r="230">
+      <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="2" t="n">
         <v>43451</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>161.47</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+    <row r="231">
+      <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="2" t="n">
         <v>43452</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>163.46</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+    <row r="232">
+      <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="2" t="n">
         <v>43453</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>161.07</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+    <row r="233">
+      <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="2" t="n">
         <v>43454</v>
       </c>
-      <c r="C233">
-        <v>157.80000000000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+      <c r="C233" t="n">
+        <v>157.8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="2" t="n">
         <v>43455</v>
       </c>
-      <c r="C234">
-        <v>154.27000000000001</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+      <c r="C234" t="n">
+        <v>154.27</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="2" t="n">
         <v>43458</v>
       </c>
-      <c r="C235">
-        <v>152.02000000000001</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
+      <c r="C235" t="n">
+        <v>152.02</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="2" t="n">
         <v>43460</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>161.76</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+    <row r="237">
+      <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="2" t="n">
         <v>43461</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>163.72</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+    <row r="238">
+      <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="2" t="n">
         <v>43462</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>163.63</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
+    <row r="239">
+      <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>165.17</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+    <row r="240">
+      <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="2" t="n">
         <v>43467</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>165.73</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
+    <row r="241">
+      <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="2" t="n">
         <v>43468</v>
       </c>
-      <c r="C241">
-        <v>162.08000000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+      <c r="C241" t="n">
+        <v>162.08</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="2" t="n">
         <v>43469</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>166.9</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+    <row r="243">
+      <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="2" t="n">
         <v>43472</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>170.18</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+    <row r="244">
+      <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="2" t="n">
         <v>43473</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+    <row r="245">
+      <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="2" t="n">
         <v>43474</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>172.77</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row r="246">
+      <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="2" t="n">
         <v>43475</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>172.13</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+    <row r="247">
+      <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="2" t="n">
         <v>43476</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>172.46</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+    <row r="248">
+      <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="2" t="n">
         <v>43479</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>171.89</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+    <row r="249">
+      <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="2" t="n">
         <v>43480</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>169.64</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+    <row r="250">
+      <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="2" t="n">
         <v>43481</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>170.18</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+    <row r="251">
+      <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="2" t="n">
         <v>43482</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>168.1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+    <row r="252">
+      <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="2" t="n">
         <v>43483</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>172.63</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+    <row r="253">
+      <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="2" t="n">
         <v>43487</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>170.25</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+    <row r="254">
+      <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="2" t="n">
         <v>43488</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>170.04</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
+    <row r="255">
+      <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="2" t="n">
         <v>43489</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>170.42</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
+    <row r="256">
+      <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="2" t="n">
         <v>43490</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>173.41</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+    <row r="257">
+      <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="2" t="n">
         <v>43493</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>172.87</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+    <row r="258">
+      <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="2" t="n">
         <v>43494</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>172.73</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
+    <row r="259">
+      <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="2" t="n">
         <v>43495</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>175.13</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
+    <row r="260">
+      <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="2" t="n">
         <v>43496</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>176.42</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+    <row r="261">
+      <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>177.23</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
+    <row r="262">
+      <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="2" t="n">
         <v>43500</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>179.21</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
+    <row r="263">
+      <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="2" t="n">
         <v>43501</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>179.17</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+    <row r="264">
+      <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="2" t="n">
         <v>43502</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>177.57</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
+    <row r="265">
+      <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="2" t="n">
         <v>43503</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>176.94</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
+    <row r="266">
+      <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="2" t="n">
         <v>43504</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>177.39</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+    <row r="267">
+      <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="2" t="n">
         <v>43507</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>175.84</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
+    <row r="268">
+      <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="2" t="n">
         <v>43508</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>178.34</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
+    <row r="269">
+      <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="2" t="n">
         <v>43509</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>181.11</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
+    <row r="270">
+      <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="2" t="n">
         <v>43510</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>180.44</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
+    <row r="271">
+      <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="2" t="n">
         <v>43511</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>184.94</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
+    <row r="272">
+      <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="2" t="n">
         <v>43515</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>184.88</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
+    <row r="273">
+      <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="2" t="n">
         <v>43516</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>184.42</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
+    <row r="274">
+      <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="2" t="n">
         <v>43517</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>184.39</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
+    <row r="275">
+      <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="2" t="n">
         <v>43518</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>184.94</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
+    <row r="276">
+      <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="2" t="n">
         <v>43521</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>182.62</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
+    <row r="277">
+      <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="2" t="n">
         <v>43522</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>181.01</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
+    <row r="278">
+      <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="2" t="n">
         <v>43523</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>176.56</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
+    <row r="279">
+      <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="2" t="n">
         <v>43524</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>177.97</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
+    <row r="280">
+      <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>178</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
+    <row r="281">
+      <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="2" t="n">
         <v>43528</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>176.69</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
+    <row r="282">
+      <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="2" t="n">
         <v>43529</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>176.87</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
+    <row r="283">
+      <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="2" t="n">
         <v>43530</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>177.31</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
+    <row r="284">
+      <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="2" t="n">
         <v>43531</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>175.44</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
+    <row r="285">
+      <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="2" t="n">
         <v>43532</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>174.21</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
+    <row r="286">
+      <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="2" t="n">
         <v>43535</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>175.38</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
+    <row r="287">
+      <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="2" t="n">
         <v>43536</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>176.87</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
+    <row r="288">
+      <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="2" t="n">
         <v>43537</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>175.42</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
+    <row r="289">
+      <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="2" t="n">
         <v>43538</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>175.88</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
+    <row r="290">
+      <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="2" t="n">
         <v>43539</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>176.48</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
+    <row r="291">
+      <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="2" t="n">
         <v>43542</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>177.63</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
+    <row r="292">
+      <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="2" t="n">
         <v>43543</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>178.32</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
+    <row r="293">
+      <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="2" t="n">
         <v>43544</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>180.23</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
+    <row r="294">
+      <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>183.97</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
+    <row r="295">
+      <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="2" t="n">
         <v>43546</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>182.79</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
+    <row r="296">
+      <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="2" t="n">
         <v>43549</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>183.69</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
+    <row r="297">
+      <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="2" t="n">
         <v>43550</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>183.36</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
+    <row r="298">
+      <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="2" t="n">
         <v>43551</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>183.28</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
+    <row r="299">
+      <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="2" t="n">
         <v>43552</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>184.06</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
+    <row r="300">
+      <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="2" t="n">
         <v>43553</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>185.83</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
+    <row r="301">
+      <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>189.46</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+    <row r="302">
+      <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="2" t="n">
         <v>43557</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>188.18</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
+    <row r="303">
+      <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="2" t="n">
         <v>43558</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>192.34</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
+    <row r="304">
+      <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="2" t="n">
         <v>43559</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>194.12</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
+    <row r="305">
+      <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="2" t="n">
         <v>43560</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>195.68</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
+    <row r="306">
+      <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306" s="2" t="n">
         <v>43563</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>197.12</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
+    <row r="307">
+      <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="2" t="n">
         <v>43564</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>194.56</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
+    <row r="308">
+      <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308" s="2" t="n">
         <v>43565</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>193.13</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
+    <row r="309">
+      <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309" s="2" t="n">
         <v>43566</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>195.12</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
+    <row r="310">
+      <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="2" t="n">
         <v>43567</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>197.42</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
+    <row r="311">
+      <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="2" t="n">
         <v>43570</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>198.39</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
+    <row r="312">
+      <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="2" t="n">
         <v>43571</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>198.02</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
+    <row r="313">
+      <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313" s="2" t="n">
         <v>43572</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>200.03</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
+    <row r="314">
+      <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="2" t="n">
         <v>43573</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>199.17</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
+    <row r="315">
+      <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315" s="2" t="n">
         <v>43577</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>198.32</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
+    <row r="316">
+      <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316" s="2" t="n">
         <v>43578</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>199.55</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
+    <row r="317">
+      <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317" s="2" t="n">
         <v>43579</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>200.19</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
+    <row r="318">
+      <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318" s="2" t="n">
         <v>43580</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>199.98</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
+    <row r="319">
+      <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319" s="2" t="n">
         <v>43581</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>197.18</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
+    <row r="320">
+      <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320" s="2" t="n">
         <v>43584</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>195.78</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
+    <row r="321">
+      <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321" s="2" t="n">
         <v>43585</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>197.27</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
+    <row r="322">
+      <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>192.52</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
+    <row r="323">
+      <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323" s="2" t="n">
         <v>43587</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>194.66</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
+    <row r="324">
+      <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324" s="2" t="n">
         <v>43588</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>194.23</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
+    <row r="325">
+      <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325" s="2" t="n">
         <v>43591</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>193.33</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
+    <row r="326">
+      <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326" s="2" t="n">
         <v>43592</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>188.62</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
+    <row r="327">
+      <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327" s="2" t="n">
         <v>43593</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>189.01</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
+    <row r="328">
+      <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328" s="2" t="n">
         <v>43594</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>188.44</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
+    <row r="329">
+      <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329" s="2" t="n">
         <v>43595</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>188.44</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
+    <row r="330">
+      <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330" s="2" t="n">
         <v>43598</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>184.33</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
+    <row r="331">
+      <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331" s="2" t="n">
         <v>43599</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>185.57</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
+    <row r="332">
+      <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332" s="2" t="n">
         <v>43600</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>185.71</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
+    <row r="333">
+      <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="2" t="n">
         <v>43601</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>186.31</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
+    <row r="334">
+      <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334" s="2" t="n">
         <v>43602</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>186.5</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
+    <row r="335">
+      <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="2" t="n">
         <v>43605</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="n">
         <v>184.92</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
+    <row r="336">
+      <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="2" t="n">
         <v>43606</v>
       </c>
-      <c r="C336">
+      <c r="C336" t="n">
         <v>185.41</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
+    <row r="337">
+      <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337" s="2" t="n">
         <v>43607</v>
       </c>
-      <c r="C337">
+      <c r="C337" t="n">
         <v>182.95</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
+    <row r="338">
+      <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338" s="2" t="n">
         <v>43608</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="n">
         <v>185.94</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
+    <row r="339">
+      <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339" s="2" t="n">
         <v>43609</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="n">
         <v>187.48</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
+    <row r="340">
+      <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340" s="2" t="n">
         <v>43613</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="n">
         <v>185.5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
+    <row r="341">
+      <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341" s="2" t="n">
         <v>43614</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="n">
         <v>183.99</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
+    <row r="342">
+      <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342" s="2" t="n">
         <v>43615</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="n">
         <v>185.05</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
+    <row r="343">
+      <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343" s="2" t="n">
         <v>43616</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="n">
         <v>183.86</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
+    <row r="344">
+      <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344" s="2" t="n">
         <v>43619</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="n">
         <v>183.59</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
+    <row r="345">
+      <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345" s="2" t="n">
         <v>43620</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="n">
         <v>189.09</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
+    <row r="346">
+      <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346" s="2" t="n">
         <v>43621</v>
       </c>
-      <c r="C346">
+      <c r="C346" t="n">
         <v>191.82</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
+    <row r="347">
+      <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347" s="2" t="n">
         <v>43622</v>
       </c>
-      <c r="C347">
+      <c r="C347" t="n">
         <v>192.29</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
+    <row r="348">
+      <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348" s="2" t="n">
         <v>43623</v>
       </c>
-      <c r="C348">
+      <c r="C348" t="n">
         <v>192.41</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
+    <row r="349">
+      <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349" s="2" t="n">
         <v>43626</v>
       </c>
-      <c r="C349">
+      <c r="C349" t="n">
         <v>193.14</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
+    <row r="350">
+      <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350" s="2" t="n">
         <v>43627</v>
       </c>
-      <c r="C350">
+      <c r="C350" t="n">
         <v>193.1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
+    <row r="351">
+      <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351" s="2" t="n">
         <v>43628</v>
       </c>
-      <c r="C351">
+      <c r="C351" t="n">
         <v>194.01</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
+    <row r="352">
+      <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352" s="2" t="n">
         <v>43629</v>
       </c>
-      <c r="C352">
+      <c r="C352" t="n">
         <v>197.34</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
+    <row r="353">
+      <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" s="2">
+      <c r="B353" s="2" t="n">
         <v>43630</v>
       </c>
-      <c r="C353">
+      <c r="C353" t="n">
         <v>200.67</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
+    <row r="354">
+      <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354" s="2">
+      <c r="B354" s="2" t="n">
         <v>43633</v>
       </c>
-      <c r="C354">
+      <c r="C354" t="n">
         <v>201.85</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
+    <row r="355">
+      <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B355" s="2" t="n">
         <v>43634</v>
       </c>
-      <c r="C355">
+      <c r="C355" t="n">
         <v>202.34</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
+    <row r="356">
+      <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B356" s="2" t="n">
         <v>43635</v>
       </c>
-      <c r="C356">
+      <c r="C356" t="n">
         <v>202.79</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
+    <row r="357">
+      <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357" s="2" t="n">
         <v>43636</v>
       </c>
-      <c r="C357">
+      <c r="C357" t="n">
         <v>206.02</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
+    <row r="358">
+      <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" s="2">
+      <c r="B358" s="2" t="n">
         <v>43637</v>
       </c>
-      <c r="C358">
+      <c r="C358" t="n">
         <v>204.2</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
+    <row r="359">
+      <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359" s="2">
+      <c r="B359" s="2" t="n">
         <v>43640</v>
       </c>
-      <c r="C359">
+      <c r="C359" t="n">
         <v>200.41</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
+    <row r="360">
+      <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360" s="2">
+      <c r="B360" s="2" t="n">
         <v>43641</v>
       </c>
-      <c r="C360">
+      <c r="C360" t="n">
         <v>199.67</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
+    <row r="361">
+      <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361" s="2" t="n">
         <v>43642</v>
       </c>
-      <c r="C361">
+      <c r="C361" t="n">
         <v>201.31</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
+    <row r="362">
+      <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362" s="2" t="n">
         <v>43643</v>
       </c>
-      <c r="C362">
+      <c r="C362" t="n">
         <v>201.89</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
+    <row r="363">
+      <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363" s="2">
+      <c r="B363" s="2" t="n">
         <v>43644</v>
       </c>
-      <c r="C363">
+      <c r="C363" t="n">
         <v>202.82</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
+    <row r="364">
+      <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364" s="2">
+      <c r="B364" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="C364">
+      <c r="C364" t="n">
         <v>205.07</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
+    <row r="365">
+      <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365" s="2">
+      <c r="B365" s="2" t="n">
         <v>43648</v>
       </c>
-      <c r="C365">
+      <c r="C365" t="n">
         <v>204.93</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
+    <row r="366">
+      <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366" s="2">
+      <c r="B366" s="2" t="n">
         <v>43649</v>
       </c>
-      <c r="C366">
+      <c r="C366" t="n">
         <v>206.85</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
+    <row r="367">
+      <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" s="2">
+      <c r="B367" s="2" t="n">
         <v>43651</v>
       </c>
-      <c r="C367">
+      <c r="C367" t="n">
         <v>206.22</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
+    <row r="368">
+      <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B368" s="2">
+      <c r="B368" s="2" t="n">
         <v>43654</v>
       </c>
-      <c r="C368">
+      <c r="C368" t="n">
         <v>207.64</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
+    <row r="369">
+      <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="B369" s="2">
+      <c r="B369" s="2" t="n">
         <v>43655</v>
       </c>
-      <c r="C369">
+      <c r="C369" t="n">
         <v>206.75</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
+    <row r="370">
+      <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="B370" s="2">
+      <c r="B370" s="2" t="n">
         <v>43656</v>
       </c>
-      <c r="C370">
+      <c r="C370" t="n">
         <v>205.53</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
+    <row r="371">
+      <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B371" s="2">
+      <c r="B371" s="2" t="n">
         <v>43657</v>
       </c>
-      <c r="C371">
+      <c r="C371" t="n">
         <v>208.74</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
+    <row r="372">
+      <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="B372" s="2">
+      <c r="B372" s="2" t="n">
         <v>43658</v>
       </c>
-      <c r="C372">
+      <c r="C372" t="n">
         <v>212.82</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
+    <row r="373">
+      <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="B373" s="2">
+      <c r="B373" s="2" t="n">
         <v>43661</v>
       </c>
-      <c r="C373">
+      <c r="C373" t="n">
         <v>213.28</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
+    <row r="374">
+      <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B374" s="2">
+      <c r="B374" s="2" t="n">
         <v>43662</v>
       </c>
-      <c r="C374">
+      <c r="C374" t="n">
         <v>211.88</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
+    <row r="375">
+      <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="B375" s="2">
+      <c r="B375" s="2" t="n">
         <v>43663</v>
       </c>
-      <c r="C375">
+      <c r="C375" t="n">
         <v>210.27</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
+    <row r="376">
+      <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="B376" s="2">
+      <c r="B376" s="2" t="n">
         <v>43664</v>
       </c>
-      <c r="C376">
+      <c r="C376" t="n">
         <v>209.13</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
+    <row r="377">
+      <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="B377" s="2">
+      <c r="B377" s="2" t="n">
         <v>43665</v>
       </c>
-      <c r="C377">
+      <c r="C377" t="n">
         <v>207.76</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
+    <row r="378">
+      <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="B378" s="2">
+      <c r="B378" s="2" t="n">
         <v>43668</v>
       </c>
-      <c r="C378">
+      <c r="C378" t="n">
         <v>206.04</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
+    <row r="379">
+      <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="B379" s="2">
+      <c r="B379" s="2" t="n">
         <v>43669</v>
       </c>
-      <c r="C379">
+      <c r="C379" t="n">
         <v>207.8</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
+    <row r="380">
+      <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B380" s="2">
+      <c r="B380" s="2" t="n">
         <v>43670</v>
       </c>
-      <c r="C380">
+      <c r="C380" t="n">
         <v>209.39</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
+    <row r="381">
+      <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="B381" s="2">
+      <c r="B381" s="2" t="n">
         <v>43671</v>
       </c>
-      <c r="C381">
+      <c r="C381" t="n">
         <v>210.21</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
+    <row r="382">
+      <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382" s="2" t="n">
         <v>43672</v>
       </c>
-      <c r="C382">
+      <c r="C382" t="n">
         <v>211.54</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
+    <row r="383">
+      <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="B383" s="2">
+      <c r="B383" s="2" t="n">
         <v>43675</v>
       </c>
-      <c r="C383">
+      <c r="C383" t="n">
         <v>212.64</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
+    <row r="384">
+      <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="B384" s="2">
+      <c r="B384" s="2" t="n">
         <v>43676</v>
       </c>
-      <c r="C384">
+      <c r="C384" t="n">
         <v>211.98</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
+    <row r="385">
+      <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B385" s="2">
+      <c r="B385" s="2" t="n">
         <v>43677</v>
       </c>
-      <c r="C385">
+      <c r="C385" t="n">
         <v>208.4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
+    <row r="386">
+      <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B386" s="2">
+      <c r="B386" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="C386">
+      <c r="C386" t="n">
         <v>207.56</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
+    <row r="387">
+      <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B387" s="2">
+      <c r="B387" s="2" t="n">
         <v>43679</v>
       </c>
-      <c r="C387">
+      <c r="C387" t="n">
         <v>206.89</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
+    <row r="388">
+      <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B388" s="2" t="n">
         <v>43682</v>
       </c>
-      <c r="C388">
+      <c r="C388" t="n">
         <v>199.86</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
+    <row r="389">
+      <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B389" s="2">
+      <c r="B389" s="2" t="n">
         <v>43683</v>
       </c>
-      <c r="C389">
+      <c r="C389" t="n">
         <v>203.63</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
+    <row r="390">
+      <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B390" s="2">
+      <c r="B390" s="2" t="n">
         <v>43684</v>
       </c>
-      <c r="C390">
+      <c r="C390" t="n">
         <v>202.76</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
+    <row r="391">
+      <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B391" s="2">
+      <c r="B391" s="2" t="n">
         <v>43685</v>
       </c>
-      <c r="C391">
+      <c r="C391" t="n">
         <v>206.33</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
+    <row r="392">
+      <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B392" s="2">
+      <c r="B392" s="2" t="n">
         <v>43686</v>
       </c>
-      <c r="C392">
+      <c r="C392" t="n">
         <v>204.82</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
+    <row r="393">
+      <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393" s="2" t="n">
         <v>43689</v>
       </c>
-      <c r="C393">
+      <c r="C393" t="n">
         <v>201.88</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
+    <row r="394">
+      <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B394" s="2">
+      <c r="B394" s="2" t="n">
         <v>43690</v>
       </c>
-      <c r="C394">
+      <c r="C394" t="n">
         <v>203.17</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
+    <row r="395">
+      <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="B395" s="2">
+      <c r="B395" s="2" t="n">
         <v>43691</v>
       </c>
-      <c r="C395">
+      <c r="C395" t="n">
         <v>196.6</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
+    <row r="396">
+      <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="B396" s="2">
+      <c r="B396" s="2" t="n">
         <v>43692</v>
       </c>
-      <c r="C396">
+      <c r="C396" t="n">
         <v>196.79</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
+    <row r="397">
+      <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="B397" s="2">
+      <c r="B397" s="2" t="n">
         <v>43693</v>
       </c>
-      <c r="C397">
+      <c r="C397" t="n">
         <v>198.6</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
+    <row r="398">
+      <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
-      <c r="B398" s="2">
+      <c r="B398" s="2" t="n">
         <v>43696</v>
       </c>
-      <c r="C398">
+      <c r="C398" t="n">
         <v>202.8</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
+    <row r="399">
+      <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="B399" s="2">
+      <c r="B399" s="2" t="n">
         <v>43697</v>
       </c>
-      <c r="C399">
+      <c r="C399" t="n">
         <v>211.71</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
+    <row r="400">
+      <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="B400" s="2">
+      <c r="B400" s="2" t="n">
         <v>43698</v>
       </c>
-      <c r="C400">
+      <c r="C400" t="n">
         <v>214.94</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
+    <row r="401">
+      <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="B401" s="2">
+      <c r="B401" s="2" t="n">
         <v>43699</v>
       </c>
-      <c r="C401">
+      <c r="C401" t="n">
         <v>215.54</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
+    <row r="402">
+      <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="B402" s="2">
+      <c r="B402" s="2" t="n">
         <v>43700</v>
       </c>
-      <c r="C402">
+      <c r="C402" t="n">
         <v>212.08</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
+    <row r="403">
+      <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="B403" s="2">
+      <c r="B403" s="2" t="n">
         <v>43703</v>
       </c>
-      <c r="C403">
+      <c r="C403" t="n">
         <v>213.23</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
+    <row r="404">
+      <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
-      <c r="B404" s="2">
+      <c r="B404" s="2" t="n">
         <v>43704</v>
       </c>
-      <c r="C404">
+      <c r="C404" t="n">
         <v>212.8</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
+    <row r="405">
+      <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
-      <c r="B405" s="2">
+      <c r="B405" s="2" t="n">
         <v>43705</v>
       </c>
-      <c r="C405">
+      <c r="C405" t="n">
         <v>216.45</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
+    <row r="406">
+      <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="B406" s="2">
+      <c r="B406" s="2" t="n">
         <v>43706</v>
       </c>
-      <c r="C406">
+      <c r="C406" t="n">
         <v>221.69</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
+    <row r="407">
+      <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="B407" s="2">
+      <c r="B407" s="2" t="n">
         <v>43707</v>
       </c>
-      <c r="C407">
+      <c r="C407" t="n">
         <v>222.26</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
+    <row r="408">
+      <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
-      <c r="B408" s="2">
+      <c r="B408" s="2" t="n">
         <v>43711</v>
       </c>
-      <c r="C408">
+      <c r="C408" t="n">
         <v>218.52</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="1">
+    <row r="409">
+      <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
-      <c r="B409" s="2">
+      <c r="B409" s="2" t="n">
         <v>43712</v>
       </c>
-      <c r="C409">
+      <c r="C409" t="n">
         <v>219.93</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
+    <row r="410">
+      <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="B410" s="2">
+      <c r="B410" s="2" t="n">
         <v>43713</v>
       </c>
-      <c r="C410">
+      <c r="C410" t="n">
         <v>223.86</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
+    <row r="411">
+      <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="B411" s="2">
+      <c r="B411" s="2" t="n">
         <v>43714</v>
       </c>
-      <c r="C411">
+      <c r="C411" t="n">
         <v>226.78</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
+    <row r="412">
+      <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="B412" s="2">
+      <c r="B412" s="2" t="n">
         <v>43717</v>
       </c>
-      <c r="C412">
+      <c r="C412" t="n">
         <v>228.49</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
+    <row r="413">
+      <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="B413" s="2">
+      <c r="B413" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="C413">
+      <c r="C413" t="n">
         <v>228.62</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
+    <row r="414">
+      <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="B414" s="2">
+      <c r="B414" s="2" t="n">
         <v>43719</v>
       </c>
-      <c r="C414">
+      <c r="C414" t="n">
         <v>228.28</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
+    <row r="415">
+      <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
-      <c r="B415" s="2">
+      <c r="B415" s="2" t="n">
         <v>43720</v>
       </c>
-      <c r="C415">
+      <c r="C415" t="n">
         <v>229.4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
+    <row r="416">
+      <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
-      <c r="B416" s="2">
+      <c r="B416" s="2" t="n">
         <v>43721</v>
       </c>
-      <c r="C416">
+      <c r="C416" t="n">
         <v>229.58</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
+    <row r="417">
+      <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
-      <c r="B417" s="2">
+      <c r="B417" s="2" t="n">
         <v>43724</v>
       </c>
-      <c r="C417">
+      <c r="C417" t="n">
         <v>226.64</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
+    <row r="418">
+      <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="B418" s="2">
+      <c r="B418" s="2" t="n">
         <v>43725</v>
       </c>
-      <c r="C418">
+      <c r="C418" t="n">
         <v>225.88</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
+    <row r="419">
+      <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
-      <c r="B419" s="2">
+      <c r="B419" s="2" t="n">
         <v>43726</v>
       </c>
-      <c r="C419">
+      <c r="C419" t="n">
         <v>226.49</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
+    <row r="420">
+      <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
-      <c r="B420" s="2">
+      <c r="B420" s="2" t="n">
         <v>43727</v>
       </c>
-      <c r="C420">
+      <c r="C420" t="n">
         <v>223.83</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="1">
+    <row r="421">
+      <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
-      <c r="B421" s="2">
+      <c r="B421" s="2" t="n">
         <v>43728</v>
       </c>
-      <c r="C421">
+      <c r="C421" t="n">
         <v>220.44</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="1">
+    <row r="422">
+      <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="B422" s="2">
+      <c r="B422" s="2" t="n">
         <v>43731</v>
       </c>
-      <c r="C422">
+      <c r="C422" t="n">
         <v>221.99</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="1">
+    <row r="423">
+      <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="B423" s="2">
+      <c r="B423" s="2" t="n">
         <v>43732</v>
       </c>
-      <c r="C423">
+      <c r="C423" t="n">
         <v>221.17</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="1">
+    <row r="424">
+      <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="B424" s="2">
+      <c r="B424" s="2" t="n">
         <v>43733</v>
       </c>
-      <c r="C424">
+      <c r="C424" t="n">
         <v>223.81</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="1">
+    <row r="425">
+      <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
-      <c r="B425" s="2">
+      <c r="B425" s="2" t="n">
         <v>43734</v>
       </c>
-      <c r="C425">
+      <c r="C425" t="n">
         <v>225.47</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="1">
+    <row r="426">
+      <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="B426" s="2">
+      <c r="B426" s="2" t="n">
         <v>43735</v>
       </c>
-      <c r="C426">
+      <c r="C426" t="n">
         <v>225.53</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="1">
+    <row r="427">
+      <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="B427" s="2">
+      <c r="B427" s="2" t="n">
         <v>43738</v>
       </c>
-      <c r="C427">
+      <c r="C427" t="n">
         <v>227.65</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="1">
+    <row r="428">
+      <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="B428" s="2">
+      <c r="B428" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="C428">
+      <c r="C428" t="n">
         <v>226.73</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="1">
+    <row r="429">
+      <c r="A429" s="1" t="n">
         <v>427</v>
       </c>
-      <c r="B429" s="2">
+      <c r="B429" s="2" t="n">
         <v>43740</v>
       </c>
-      <c r="C429">
+      <c r="C429" t="n">
         <v>221.31</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="1">
+    <row r="430">
+      <c r="A430" s="1" t="n">
         <v>428</v>
       </c>
-      <c r="B430" s="2">
+      <c r="B430" s="2" t="n">
         <v>43741</v>
       </c>
-      <c r="C430">
+      <c r="C430" t="n">
         <v>222.54</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="1">
+    <row r="431">
+      <c r="A431" s="1" t="n">
         <v>429</v>
       </c>
-      <c r="B431" s="2">
+      <c r="B431" s="2" t="n">
         <v>43742</v>
       </c>
-      <c r="C431">
+      <c r="C431" t="n">
         <v>223.64</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
+    <row r="432">
+      <c r="A432" s="1" t="n">
         <v>430</v>
       </c>
-      <c r="B432" s="2">
+      <c r="B432" s="2" t="n">
         <v>43745</v>
       </c>
-      <c r="C432">
+      <c r="C432" t="n">
         <v>222.47</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="1">
+    <row r="433">
+      <c r="A433" s="1" t="n">
         <v>431</v>
       </c>
-      <c r="B433" s="2">
+      <c r="B433" s="2" t="n">
         <v>43746</v>
       </c>
-      <c r="C433">
+      <c r="C433" t="n">
         <v>222.4</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="1">
+    <row r="434">
+      <c r="A434" s="1" t="n">
         <v>432</v>
       </c>
-      <c r="B434" s="2">
+      <c r="B434" s="2" t="n">
         <v>43747</v>
       </c>
-      <c r="C434">
+      <c r="C434" t="n">
         <v>224.63</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="1">
+    <row r="435">
+      <c r="A435" s="1" t="n">
         <v>433</v>
       </c>
-      <c r="B435" s="2">
+      <c r="B435" s="2" t="n">
         <v>43748</v>
       </c>
-      <c r="C435">
+      <c r="C435" t="n">
         <v>227.25</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="1">
+    <row r="436">
+      <c r="A436" s="1" t="n">
         <v>434</v>
       </c>
-      <c r="B436" s="2">
+      <c r="B436" s="2" t="n">
         <v>43749</v>
       </c>
-      <c r="C436">
+      <c r="C436" t="n">
         <v>230.24</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="1">
+    <row r="437">
+      <c r="A437" s="1" t="n">
         <v>435</v>
       </c>
-      <c r="B437" s="2">
+      <c r="B437" s="2" t="n">
         <v>43752</v>
       </c>
-      <c r="C437">
+      <c r="C437" t="n">
         <v>229.77</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="1">
+    <row r="438">
+      <c r="A438" s="1" t="n">
         <v>436</v>
       </c>
-      <c r="B438" s="2">
+      <c r="B438" s="2" t="n">
         <v>43753</v>
       </c>
-      <c r="C438">
+      <c r="C438" t="n">
         <v>231.19</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="1">
+    <row r="439">
+      <c r="A439" s="1" t="n">
         <v>437</v>
       </c>
-      <c r="B439" s="2">
+      <c r="B439" s="2" t="n">
         <v>43754</v>
       </c>
-      <c r="C439">
+      <c r="C439" t="n">
         <v>231.46</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="1">
+    <row r="440">
+      <c r="A440" s="1" t="n">
         <v>438</v>
       </c>
-      <c r="B440" s="2">
+      <c r="B440" s="2" t="n">
         <v>43755</v>
       </c>
-      <c r="C440">
+      <c r="C440" t="n">
         <v>232.31</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="1">
+    <row r="441">
+      <c r="A441" s="1" t="n">
         <v>439</v>
       </c>
-      <c r="B441" s="2">
+      <c r="B441" s="2" t="n">
         <v>43756</v>
       </c>
-      <c r="C441">
+      <c r="C441" t="n">
         <v>233.45</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="1">
+    <row r="442">
+      <c r="A442" s="1" t="n">
         <v>440</v>
       </c>
-      <c r="B442" s="2">
+      <c r="B442" s="2" t="n">
         <v>43759</v>
       </c>
-      <c r="C442">
+      <c r="C442" t="n">
         <v>232.25</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="1">
+    <row r="443">
+      <c r="A443" s="1" t="n">
         <v>441</v>
       </c>
-      <c r="B443" s="2">
+      <c r="B443" s="2" t="n">
         <v>43760</v>
       </c>
-      <c r="C443">
+      <c r="C443" t="n">
         <v>232.74</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="1">
+    <row r="444">
+      <c r="A444" s="1" t="n">
         <v>442</v>
       </c>
-      <c r="B444" s="2">
+      <c r="B444" s="2" t="n">
         <v>43761</v>
       </c>
-      <c r="C444">
+      <c r="C444" t="n">
         <v>230.25</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="1">
+    <row r="445">
+      <c r="A445" s="1" t="n">
         <v>443</v>
       </c>
-      <c r="B445" s="2">
+      <c r="B445" s="2" t="n">
         <v>43762</v>
       </c>
-      <c r="C445">
+      <c r="C445" t="n">
         <v>229.49</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="1">
+    <row r="446">
+      <c r="A446" s="1" t="n">
         <v>444</v>
       </c>
-      <c r="B446" s="2">
+      <c r="B446" s="2" t="n">
         <v>43763</v>
       </c>
-      <c r="C446">
+      <c r="C446" t="n">
         <v>229.97</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="1">
+    <row r="447">
+      <c r="A447" s="1" t="n">
         <v>445</v>
       </c>
-      <c r="B447" s="2">
+      <c r="B447" s="2" t="n">
         <v>43766</v>
       </c>
-      <c r="C447">
+      <c r="C447" t="n">
         <v>232.34</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="1">
+    <row r="448">
+      <c r="A448" s="1" t="n">
         <v>446</v>
       </c>
-      <c r="B448" s="2">
+      <c r="B448" s="2" t="n">
         <v>43767</v>
       </c>
-      <c r="C448">
+      <c r="C448" t="n">
         <v>229.73</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="1">
+    <row r="449">
+      <c r="A449" s="1" t="n">
         <v>447</v>
       </c>
-      <c r="B449" s="2">
+      <c r="B449" s="2" t="n">
         <v>43768</v>
       </c>
-      <c r="C449">
+      <c r="C449" t="n">
         <v>231.79</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="1">
+    <row r="450">
+      <c r="A450" s="1" t="n">
         <v>448</v>
       </c>
-      <c r="B450" s="2">
+      <c r="B450" s="2" t="n">
         <v>43769</v>
       </c>
-      <c r="C450">
+      <c r="C450" t="n">
         <v>230.17</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="1">
+    <row r="451">
+      <c r="A451" s="1" t="n">
         <v>449</v>
       </c>
-      <c r="B451" s="2">
+      <c r="B451" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="C451">
+      <c r="C451" t="n">
         <v>232.87</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="1">
+    <row r="452">
+      <c r="A452" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="B452" s="2">
+      <c r="B452" s="2" t="n">
         <v>43773</v>
       </c>
-      <c r="C452">
+      <c r="C452" t="n">
         <v>230.5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="1">
+    <row r="453">
+      <c r="A453" s="1" t="n">
         <v>451</v>
       </c>
-      <c r="B453" s="2">
+      <c r="B453" s="2" t="n">
         <v>43774</v>
       </c>
-      <c r="C453">
+      <c r="C453" t="n">
         <v>227.83</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="1">
+    <row r="454">
+      <c r="A454" s="1" t="n">
         <v>452</v>
       </c>
-      <c r="B454" s="2">
+      <c r="B454" s="2" t="n">
         <v>43775</v>
       </c>
-      <c r="C454">
+      <c r="C454" t="n">
         <v>229.61</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="1">
+    <row r="455">
+      <c r="A455" s="1" t="n">
         <v>453</v>
       </c>
-      <c r="B455" s="2">
+      <c r="B455" s="2" t="n">
         <v>43776</v>
       </c>
-      <c r="C455">
+      <c r="C455" t="n">
         <v>228.56</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="1">
+    <row r="456">
+      <c r="A456" s="1" t="n">
         <v>454</v>
       </c>
-      <c r="B456" s="2">
+      <c r="B456" s="2" t="n">
         <v>43777</v>
       </c>
-      <c r="C456">
+      <c r="C456" t="n">
         <v>228.46</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="1">
+    <row r="457">
+      <c r="A457" s="1" t="n">
         <v>455</v>
       </c>
-      <c r="B457" s="2">
+      <c r="B457" s="2" t="n">
         <v>43780</v>
       </c>
-      <c r="C457">
+      <c r="C457" t="n">
         <v>227.44</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="1">
+    <row r="458">
+      <c r="A458" s="1" t="n">
         <v>456</v>
       </c>
-      <c r="B458" s="2">
+      <c r="B458" s="2" t="n">
         <v>43781</v>
       </c>
-      <c r="C458">
+      <c r="C458" t="n">
         <v>228.73</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="1">
+    <row r="459">
+      <c r="A459" s="1" t="n">
         <v>457</v>
       </c>
-      <c r="B459" s="2">
+      <c r="B459" s="2" t="n">
         <v>43782</v>
       </c>
-      <c r="C459">
+      <c r="C459" t="n">
         <v>230.38</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="1">
+    <row r="460">
+      <c r="A460" s="1" t="n">
         <v>458</v>
       </c>
-      <c r="B460" s="2">
+      <c r="B460" s="2" t="n">
         <v>43783</v>
       </c>
-      <c r="C460">
+      <c r="C460" t="n">
         <v>232.1</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="1">
+    <row r="461">
+      <c r="A461" s="1" t="n">
         <v>459</v>
       </c>
-      <c r="B461" s="2">
+      <c r="B461" s="2" t="n">
         <v>43784</v>
       </c>
-      <c r="C461">
+      <c r="C461" t="n">
         <v>232.82</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="1">
+    <row r="462">
+      <c r="A462" s="1" t="n">
         <v>460</v>
       </c>
-      <c r="B462" s="2">
+      <c r="B462" s="2" t="n">
         <v>43787</v>
       </c>
-      <c r="C462">
+      <c r="C462" t="n">
         <v>234.36</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="1">
+    <row r="463">
+      <c r="A463" s="1" t="n">
         <v>461</v>
       </c>
-      <c r="B463" s="2">
+      <c r="B463" s="2" t="n">
         <v>43788</v>
       </c>
-      <c r="C463">
+      <c r="C463" t="n">
         <v>221.61</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="1">
+    <row r="464">
+      <c r="A464" s="1" t="n">
         <v>462</v>
       </c>
-      <c r="B464" s="2">
+      <c r="B464" s="2" t="n">
         <v>43789</v>
       </c>
-      <c r="C464">
+      <c r="C464" t="n">
         <v>216.74</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" s="1">
+    <row r="465">
+      <c r="A465" s="1" t="n">
         <v>463</v>
       </c>
-      <c r="B465" s="2">
+      <c r="B465" s="2" t="n">
         <v>43790</v>
       </c>
-      <c r="C465">
+      <c r="C465" t="n">
         <v>214.43</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="1">
+    <row r="466">
+      <c r="A466" s="1" t="n">
         <v>464</v>
       </c>
-      <c r="B466" s="2">
+      <c r="B466" s="2" t="n">
         <v>43791</v>
       </c>
-      <c r="C466">
+      <c r="C466" t="n">
         <v>213.93</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="1">
+    <row r="467">
+      <c r="A467" s="1" t="n">
         <v>465</v>
       </c>
-      <c r="B467" s="2">
+      <c r="B467" s="2" t="n">
         <v>43794</v>
       </c>
-      <c r="C467">
+      <c r="C467" t="n">
         <v>214.29</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="1">
+    <row r="468">
+      <c r="A468" s="1" t="n">
         <v>466</v>
       </c>
-      <c r="B468" s="2">
+      <c r="B468" s="2" t="n">
         <v>43795</v>
       </c>
-      <c r="C468">
+      <c r="C468" t="n">
         <v>216.61</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="1">
+    <row r="469">
+      <c r="A469" s="1" t="n">
         <v>467</v>
       </c>
-      <c r="B469" s="2">
+      <c r="B469" s="2" t="n">
         <v>43796</v>
       </c>
-      <c r="C469">
+      <c r="C469" t="n">
         <v>218.8</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="1">
+    <row r="470">
+      <c r="A470" s="1" t="n">
         <v>468</v>
       </c>
-      <c r="B470" s="2">
+      <c r="B470" s="2" t="n">
         <v>43798</v>
       </c>
-      <c r="C470">
+      <c r="C470" t="n">
         <v>216.36</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="1">
+    <row r="471">
+      <c r="A471" s="1" t="n">
         <v>469</v>
       </c>
-      <c r="B471" s="2">
+      <c r="B471" s="2" t="n">
         <v>43801</v>
       </c>
-      <c r="C471">
+      <c r="C471" t="n">
         <v>213.52</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472" s="1">
+    <row r="472">
+      <c r="A472" s="1" t="n">
         <v>470</v>
       </c>
-      <c r="B472" s="2">
+      <c r="B472" s="2" t="n">
         <v>43802</v>
       </c>
-      <c r="C472">
+      <c r="C472" t="n">
         <v>209.97</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="1">
+    <row r="473">
+      <c r="A473" s="1" t="n">
         <v>471</v>
       </c>
-      <c r="B473" s="2">
+      <c r="B473" s="2" t="n">
         <v>43803</v>
       </c>
-      <c r="C473">
+      <c r="C473" t="n">
         <v>211.41</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474" s="1">
+    <row r="474">
+      <c r="A474" s="1" t="n">
         <v>472</v>
       </c>
-      <c r="B474" s="2">
+      <c r="B474" s="2" t="n">
         <v>43804</v>
       </c>
-      <c r="C474">
+      <c r="C474" t="n">
         <v>210.33</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475" s="1">
+    <row r="475">
+      <c r="A475" s="1" t="n">
         <v>473</v>
       </c>
-      <c r="B475" s="2">
+      <c r="B475" s="2" t="n">
         <v>43805</v>
       </c>
-      <c r="C475">
+      <c r="C475" t="n">
         <v>211.59</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476" s="1">
+    <row r="476">
+      <c r="A476" s="1" t="n">
         <v>474</v>
       </c>
-      <c r="B476" s="2">
+      <c r="B476" s="2" t="n">
         <v>43808</v>
       </c>
-      <c r="C476">
+      <c r="C476" t="n">
         <v>213.81</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477" s="1">
+    <row r="477">
+      <c r="A477" s="1" t="n">
         <v>475</v>
       </c>
-      <c r="B477" s="2">
+      <c r="B477" s="2" t="n">
         <v>43809</v>
       </c>
-      <c r="C477">
+      <c r="C477" t="n">
         <v>213.19</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478" s="1">
+    <row r="478">
+      <c r="A478" s="1" t="n">
         <v>476</v>
       </c>
-      <c r="B478" s="2">
+      <c r="B478" s="2" t="n">
         <v>43810</v>
       </c>
-      <c r="C478">
+      <c r="C478" t="n">
         <v>209.34</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="1">
+    <row r="479">
+      <c r="A479" s="1" t="n">
         <v>477</v>
       </c>
-      <c r="B479" s="2">
+      <c r="B479" s="2" t="n">
         <v>43811</v>
       </c>
-      <c r="C479">
+      <c r="C479" t="n">
         <v>209.38</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" s="1">
+    <row r="480">
+      <c r="A480" s="1" t="n">
         <v>478</v>
       </c>
-      <c r="B480" s="2">
+      <c r="B480" s="2" t="n">
         <v>43812</v>
       </c>
-      <c r="C480">
+      <c r="C480" t="n">
         <v>211.39</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="1">
+    <row r="481">
+      <c r="A481" s="1" t="n">
         <v>479</v>
       </c>
-      <c r="B481" s="2">
+      <c r="B481" s="2" t="n">
         <v>43815</v>
       </c>
-      <c r="C481">
+      <c r="C481" t="n">
         <v>212.83</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="1">
+    <row r="482">
+      <c r="A482" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="B482" s="2">
+      <c r="B482" s="2" t="n">
         <v>43816</v>
       </c>
-      <c r="C482">
+      <c r="C482" t="n">
         <v>214.99</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" s="1">
+    <row r="483">
+      <c r="A483" s="1" t="n">
         <v>481</v>
       </c>
-      <c r="B483" s="2">
+      <c r="B483" s="2" t="n">
         <v>43817</v>
       </c>
-      <c r="C483">
+      <c r="C483" t="n">
         <v>215.27</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="1">
+    <row r="484">
+      <c r="A484" s="1" t="n">
         <v>482</v>
       </c>
-      <c r="B484" s="2">
+      <c r="B484" s="2" t="n">
         <v>43818</v>
       </c>
-      <c r="C484">
+      <c r="C484" t="n">
         <v>217.46</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="1">
+    <row r="485">
+      <c r="A485" s="1" t="n">
         <v>483</v>
       </c>
-      <c r="B485" s="2">
+      <c r="B485" s="2" t="n">
         <v>43819</v>
       </c>
-      <c r="C485">
+      <c r="C485" t="n">
         <v>218.42</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="1">
+    <row r="486">
+      <c r="A486" s="1" t="n">
         <v>484</v>
       </c>
-      <c r="B486" s="2">
+      <c r="B486" s="2" t="n">
         <v>43822</v>
       </c>
-      <c r="C486">
+      <c r="C486" t="n">
         <v>216.46</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487" s="1">
+    <row r="487">
+      <c r="A487" s="1" t="n">
         <v>485</v>
       </c>
-      <c r="B487" s="2">
+      <c r="B487" s="2" t="n">
         <v>43823</v>
       </c>
-      <c r="C487">
+      <c r="C487" t="n">
         <v>217.9</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" s="1">
+    <row r="488">
+      <c r="A488" s="1" t="n">
         <v>486</v>
       </c>
-      <c r="B488" s="2">
+      <c r="B488" s="2" t="n">
         <v>43825</v>
       </c>
-      <c r="C488">
+      <c r="C488" t="n">
         <v>218.05</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="1">
+    <row r="489">
+      <c r="A489" s="1" t="n">
         <v>487</v>
       </c>
-      <c r="B489" s="2">
+      <c r="B489" s="2" t="n">
         <v>43826</v>
       </c>
-      <c r="C489">
+      <c r="C489" t="n">
         <v>217.21</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="1">
+    <row r="490">
+      <c r="A490" s="1" t="n">
         <v>488</v>
       </c>
-      <c r="B490" s="2">
+      <c r="B490" s="2" t="n">
         <v>43829</v>
       </c>
-      <c r="C490">
+      <c r="C490" t="n">
         <v>214.58</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" s="1">
+    <row r="491">
+      <c r="A491" s="1" t="n">
         <v>489</v>
       </c>
-      <c r="B491" s="2">
+      <c r="B491" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="C491">
+      <c r="C491" t="n">
         <v>215.64</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="1">
+    <row r="492">
+      <c r="A492" s="1" t="n">
         <v>490</v>
       </c>
-      <c r="B492" s="2">
+      <c r="B492" s="2" t="n">
         <v>43832</v>
       </c>
-      <c r="C492">
+      <c r="C492" t="n">
         <v>216.9</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" s="1">
+    <row r="493">
+      <c r="A493" s="1" t="n">
         <v>491</v>
       </c>
-      <c r="B493" s="2">
+      <c r="B493" s="2" t="n">
         <v>43833</v>
       </c>
-      <c r="C493">
+      <c r="C493" t="n">
         <v>216.18</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" s="1">
+    <row r="494">
+      <c r="A494" s="1" t="n">
         <v>492</v>
       </c>
-      <c r="B494" s="2">
+      <c r="B494" s="2" t="n">
         <v>43836</v>
       </c>
-      <c r="C494">
+      <c r="C494" t="n">
         <v>217.2</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="1">
+    <row r="495">
+      <c r="A495" s="1" t="n">
         <v>493</v>
       </c>
-      <c r="B495" s="2">
+      <c r="B495" s="2" t="n">
         <v>43837</v>
       </c>
-      <c r="C495">
+      <c r="C495" t="n">
         <v>215.78</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="1">
+    <row r="496">
+      <c r="A496" s="1" t="n">
         <v>494</v>
       </c>
-      <c r="B496" s="2">
+      <c r="B496" s="2" t="n">
         <v>43838</v>
       </c>
-      <c r="C496">
+      <c r="C496" t="n">
         <v>219.01</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="1">
+    <row r="497">
+      <c r="A497" s="1" t="n">
         <v>495</v>
       </c>
-      <c r="B497" s="2">
+      <c r="B497" s="2" t="n">
         <v>43839</v>
       </c>
-      <c r="C497">
+      <c r="C497" t="n">
         <v>222.37</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="1">
+    <row r="498">
+      <c r="A498" s="1" t="n">
         <v>496</v>
       </c>
-      <c r="B498" s="2">
+      <c r="B498" s="2" t="n">
         <v>43840</v>
       </c>
-      <c r="C498">
+      <c r="C498" t="n">
         <v>221.41</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="1">
+    <row r="499">
+      <c r="A499" s="1" t="n">
         <v>497</v>
       </c>
-      <c r="B499" s="2">
+      <c r="B499" s="2" t="n">
         <v>43843</v>
       </c>
-      <c r="C499">
+      <c r="C499" t="n">
         <v>220.54</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="1">
+    <row r="500">
+      <c r="A500" s="1" t="n">
         <v>498</v>
       </c>
-      <c r="B500" s="2">
+      <c r="B500" s="2" t="n">
         <v>43844</v>
       </c>
-      <c r="C500">
+      <c r="C500" t="n">
         <v>220.02</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="1">
+    <row r="501">
+      <c r="A501" s="1" t="n">
         <v>499</v>
       </c>
-      <c r="B501" s="2">
+      <c r="B501" s="2" t="n">
         <v>43845</v>
       </c>
-      <c r="C501">
+      <c r="C501" t="n">
         <v>221.77</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="1">
+    <row r="502">
+      <c r="A502" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="B502" s="2">
+      <c r="B502" s="2" t="n">
         <v>43846</v>
       </c>
-      <c r="C502">
+      <c r="C502" t="n">
         <v>225.95</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="1">
+    <row r="503">
+      <c r="A503" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="B503" s="2">
+      <c r="B503" s="2" t="n">
         <v>43847</v>
       </c>
-      <c r="C503">
+      <c r="C503" t="n">
         <v>229</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="1">
+    <row r="504">
+      <c r="A504" s="1" t="n">
         <v>502</v>
       </c>
-      <c r="B504" s="2">
+      <c r="B504" s="2" t="n">
         <v>43851</v>
       </c>
-      <c r="C504">
+      <c r="C504" t="n">
         <v>230.03</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505" s="1">
+    <row r="505">
+      <c r="A505" s="1" t="n">
         <v>503</v>
       </c>
-      <c r="B505" s="2">
+      <c r="B505" s="2" t="n">
         <v>43852</v>
       </c>
-      <c r="C505">
+      <c r="C505" t="n">
         <v>229.98</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="1">
+    <row r="506">
+      <c r="A506" s="1" t="n">
         <v>504</v>
       </c>
-      <c r="B506" s="2">
+      <c r="B506" s="2" t="n">
         <v>43853</v>
       </c>
-      <c r="C506">
+      <c r="C506" t="n">
         <v>230.72</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="1">
+    <row r="507">
+      <c r="A507" s="1" t="n">
         <v>505</v>
       </c>
-      <c r="B507" s="2">
+      <c r="B507" s="2" t="n">
         <v>43854</v>
       </c>
-      <c r="C507">
+      <c r="C507" t="n">
         <v>229.09</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="1">
+    <row r="508">
+      <c r="A508" s="1" t="n">
         <v>506</v>
       </c>
-      <c r="B508" s="2">
+      <c r="B508" s="2" t="n">
         <v>43857</v>
       </c>
-      <c r="C508">
+      <c r="C508" t="n">
         <v>228.29</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" s="1">
+    <row r="509">
+      <c r="A509" s="1" t="n">
         <v>507</v>
       </c>
-      <c r="B509" s="2">
+      <c r="B509" s="2" t="n">
         <v>43858</v>
       </c>
-      <c r="C509">
+      <c r="C509" t="n">
         <v>230.93</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" s="1">
+    <row r="510">
+      <c r="A510" s="1" t="n">
         <v>508</v>
       </c>
-      <c r="B510" s="2">
+      <c r="B510" s="2" t="n">
         <v>43859</v>
       </c>
-      <c r="C510">
+      <c r="C510" t="n">
         <v>231.08</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511" s="1">
+    <row r="511">
+      <c r="A511" s="1" t="n">
         <v>509</v>
       </c>
-      <c r="B511" s="2">
+      <c r="B511" s="2" t="n">
         <v>43860</v>
       </c>
-      <c r="C511">
+      <c r="C511" t="n">
         <v>229.87</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="1">
+    <row r="512">
+      <c r="A512" s="1" t="n">
         <v>510</v>
       </c>
-      <c r="B512" s="2">
+      <c r="B512" s="2" t="n">
         <v>43861</v>
       </c>
-      <c r="C512">
+      <c r="C512" t="n">
         <v>225.24</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513" s="1">
+    <row r="513">
+      <c r="A513" s="1" t="n">
         <v>511</v>
       </c>
-      <c r="B513" s="2">
+      <c r="B513" s="2" t="n">
         <v>43864</v>
       </c>
-      <c r="C513">
+      <c r="C513" t="n">
         <v>228.64</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="1">
+    <row r="514">
+      <c r="A514" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="B514" s="2">
+      <c r="B514" s="2" t="n">
         <v>43865</v>
       </c>
-      <c r="C514">
+      <c r="C514" t="n">
         <v>232.05</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="1">
+    <row r="515">
+      <c r="A515" s="1" t="n">
         <v>513</v>
       </c>
-      <c r="B515" s="2">
+      <c r="B515" s="2" t="n">
         <v>43866</v>
       </c>
-      <c r="C515">
+      <c r="C515" t="n">
         <v>235.12</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516" s="1">
+    <row r="516">
+      <c r="A516" s="1" t="n">
         <v>514</v>
       </c>
-      <c r="B516" s="2">
+      <c r="B516" s="2" t="n">
         <v>43867</v>
       </c>
-      <c r="C516">
+      <c r="C516" t="n">
         <v>235.84</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="1">
+    <row r="517">
+      <c r="A517" s="1" t="n">
         <v>515</v>
       </c>
-      <c r="B517" s="2">
+      <c r="B517" s="2" t="n">
         <v>43868</v>
       </c>
-      <c r="C517">
+      <c r="C517" t="n">
         <v>234.32</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="1">
+    <row r="518">
+      <c r="A518" s="1" t="n">
         <v>516</v>
       </c>
-      <c r="B518" s="2">
+      <c r="B518" s="2" t="n">
         <v>43871</v>
       </c>
-      <c r="C518">
+      <c r="C518" t="n">
         <v>237.59</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="1">
+    <row r="519">
+      <c r="A519" s="1" t="n">
         <v>517</v>
       </c>
-      <c r="B519" s="2">
+      <c r="B519" s="2" t="n">
         <v>43872</v>
       </c>
-      <c r="C519">
+      <c r="C519" t="n">
         <v>238.61</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520" s="1">
+    <row r="520">
+      <c r="A520" s="1" t="n">
         <v>518</v>
       </c>
-      <c r="B520" s="2">
+      <c r="B520" s="2" t="n">
         <v>43873</v>
       </c>
-      <c r="C520">
+      <c r="C520" t="n">
         <v>238.56</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521" s="1">
+    <row r="521">
+      <c r="A521" s="1" t="n">
         <v>519</v>
       </c>
-      <c r="B521" s="2">
+      <c r="B521" s="2" t="n">
         <v>43874</v>
       </c>
-      <c r="C521">
+      <c r="C521" t="n">
         <v>239.32</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522" s="1">
+    <row r="522">
+      <c r="A522" s="1" t="n">
         <v>520</v>
       </c>
-      <c r="B522" s="2">
+      <c r="B522" s="2" t="n">
         <v>43875</v>
       </c>
-      <c r="C522">
+      <c r="C522" t="n">
         <v>241.96</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523" s="1">
+    <row r="523">
+      <c r="A523" s="1" t="n">
         <v>521</v>
       </c>
-      <c r="B523" s="2">
+      <c r="B523" s="2" t="n">
         <v>43879</v>
       </c>
-      <c r="C523">
+      <c r="C523" t="n">
         <v>240.88</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524" s="1">
+    <row r="524">
+      <c r="A524" s="1" t="n">
         <v>522</v>
       </c>
-      <c r="B524" s="2">
+      <c r="B524" s="2" t="n">
         <v>43880</v>
       </c>
-      <c r="C524">
+      <c r="C524" t="n">
         <v>240.58</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525" s="1">
+    <row r="525">
+      <c r="A525" s="1" t="n">
         <v>523</v>
       </c>
-      <c r="B525" s="2">
+      <c r="B525" s="2" t="n">
         <v>43881</v>
       </c>
-      <c r="C525">
+      <c r="C525" t="n">
         <v>243.92</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526" s="1">
+    <row r="526">
+      <c r="A526" s="1" t="n">
         <v>524</v>
       </c>
-      <c r="B526" s="2">
+      <c r="B526" s="2" t="n">
         <v>43882</v>
       </c>
-      <c r="C526">
+      <c r="C526" t="n">
         <v>242.26</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527" s="1">
+    <row r="527">
+      <c r="A527" s="1" t="n">
         <v>525</v>
       </c>
-      <c r="B527" s="2">
+      <c r="B527" s="2" t="n">
         <v>43885</v>
       </c>
-      <c r="C527">
+      <c r="C527" t="n">
         <v>236.69</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528" s="1">
+    <row r="528">
+      <c r="A528" s="1" t="n">
         <v>526</v>
       </c>
-      <c r="B528" s="2">
+      <c r="B528" s="2" t="n">
         <v>43886</v>
       </c>
-      <c r="C528">
+      <c r="C528" t="n">
         <v>234.4</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="1">
+    <row r="529">
+      <c r="A529" s="1" t="n">
         <v>527</v>
       </c>
-      <c r="B529" s="2">
+      <c r="B529" s="2" t="n">
         <v>43887</v>
       </c>
-      <c r="C529">
+      <c r="C529" t="n">
         <v>232.33</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" s="1">
+    <row r="530">
+      <c r="A530" s="1" t="n">
         <v>528</v>
       </c>
-      <c r="B530" s="2">
+      <c r="B530" s="2" t="n">
         <v>43888</v>
       </c>
-      <c r="C530">
+      <c r="C530" t="n">
         <v>221.91</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="1">
+    <row r="531">
+      <c r="A531" s="1" t="n">
         <v>529</v>
       </c>
-      <c r="B531" s="2">
+      <c r="B531" s="2" t="n">
         <v>43889</v>
       </c>
-      <c r="C531">
+      <c r="C531" t="n">
         <v>215.11</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="1">
+    <row r="532">
+      <c r="A532" s="1" t="n">
         <v>530</v>
       </c>
-      <c r="B532" s="2">
+      <c r="B532" s="2" t="n">
         <v>43892</v>
       </c>
-      <c r="C532">
+      <c r="C532" t="n">
         <v>227.06</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" s="1">
+    <row r="533">
+      <c r="A533" s="1" t="n">
         <v>531</v>
       </c>
-      <c r="B533" s="2">
+      <c r="B533" s="2" t="n">
         <v>43893</v>
       </c>
-      <c r="C533">
+      <c r="C533" t="n">
         <v>225.08</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" s="1">
+    <row r="534">
+      <c r="A534" s="1" t="n">
         <v>532</v>
       </c>
-      <c r="B534" s="2">
+      <c r="B534" s="2" t="n">
         <v>43894</v>
       </c>
-      <c r="C534">
+      <c r="C534" t="n">
         <v>238.06</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" s="1">
+    <row r="535">
+      <c r="A535" s="1" t="n">
         <v>533</v>
       </c>
-      <c r="B535" s="2">
+      <c r="B535" s="2" t="n">
         <v>43895</v>
       </c>
-      <c r="C535">
+      <c r="C535" t="n">
         <v>231.86</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" s="1">
+    <row r="536">
+      <c r="A536" s="1" t="n">
         <v>534</v>
       </c>
-      <c r="B536" s="2">
+      <c r="B536" s="2" t="n">
         <v>43896</v>
       </c>
-      <c r="C536">
+      <c r="C536" t="n">
         <v>225.64</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" s="1">
+    <row r="537">
+      <c r="A537" s="1" t="n">
         <v>535</v>
       </c>
-      <c r="B537" s="2">
+      <c r="B537" s="2" t="n">
         <v>43899</v>
       </c>
-      <c r="C537">
+      <c r="C537" t="n">
         <v>207.82</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" s="1">
+    <row r="538">
+      <c r="A538" s="1" t="n">
         <v>536</v>
       </c>
-      <c r="B538" s="2">
+      <c r="B538" s="2" t="n">
         <v>43900</v>
       </c>
-      <c r="C538">
+      <c r="C538" t="n">
         <v>222.87</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" s="1">
+    <row r="539">
+      <c r="A539" s="1" t="n">
         <v>537</v>
       </c>
-      <c r="B539" s="2">
+      <c r="B539" s="2" t="n">
         <v>43901</v>
       </c>
-      <c r="C539">
+      <c r="C539" t="n">
         <v>211.63</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" s="1">
+    <row r="540">
+      <c r="A540" s="1" t="n">
         <v>538</v>
       </c>
-      <c r="B540" s="2">
+      <c r="B540" s="2" t="n">
         <v>43902</v>
       </c>
-      <c r="C540">
+      <c r="C540" t="n">
         <v>189.46</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" s="1">
+    <row r="541">
+      <c r="A541" s="1" t="n">
         <v>539</v>
       </c>
-      <c r="B541" s="2">
+      <c r="B541" s="2" t="n">
         <v>43903</v>
       </c>
-      <c r="C541">
+      <c r="C541" t="n">
         <v>204.45</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" s="1">
+    <row r="542">
+      <c r="A542" s="1" t="n">
         <v>540</v>
       </c>
-      <c r="B542" s="2">
+      <c r="B542" s="2" t="n">
         <v>43906</v>
       </c>
-      <c r="C542">
+      <c r="C542" t="n">
         <v>163.98</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" s="1">
+    <row r="543">
+      <c r="A543" s="1" t="n">
         <v>541</v>
       </c>
-      <c r="B543" s="2">
+      <c r="B543" s="2" t="n">
         <v>43907</v>
       </c>
-      <c r="C543">
+      <c r="C543" t="n">
         <v>172.61</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" s="1">
+    <row r="544">
+      <c r="A544" s="1" t="n">
         <v>542</v>
       </c>
-      <c r="B544" s="2">
+      <c r="B544" s="2" t="n">
         <v>43908</v>
       </c>
-      <c r="C544">
+      <c r="C544" t="n">
         <v>154.71</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" s="1">
+    <row r="545">
+      <c r="A545" s="1" t="n">
         <v>543</v>
       </c>
-      <c r="B545" s="2">
+      <c r="B545" s="2" t="n">
         <v>43909</v>
       </c>
-      <c r="C545">
-        <v>160.16999999999999</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" s="1">
+      <c r="C545" t="n">
+        <v>160.17</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
         <v>544</v>
       </c>
-      <c r="B546" s="2">
+      <c r="B546" s="2" t="n">
         <v>43910</v>
       </c>
-      <c r="C546">
+      <c r="C546" t="n">
         <v>151.25</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" s="1">
+    <row r="547">
+      <c r="A547" s="1" t="n">
         <v>545</v>
       </c>
-      <c r="B547" s="2">
+      <c r="B547" s="2" t="n">
         <v>43913</v>
       </c>
-      <c r="C547">
+      <c r="C547" t="n">
         <v>161.43</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" s="1">
+    <row r="548">
+      <c r="A548" s="1" t="n">
         <v>546</v>
       </c>
-      <c r="B548" s="2">
+      <c r="B548" s="2" t="n">
         <v>43914</v>
       </c>
-      <c r="C548">
+      <c r="C548" t="n">
         <v>183.62</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" s="1">
+    <row r="549">
+      <c r="A549" s="1" t="n">
         <v>547</v>
       </c>
-      <c r="B549" s="2">
+      <c r="B549" s="2" t="n">
         <v>43915</v>
       </c>
-      <c r="C549">
+      <c r="C549" t="n">
         <v>180.68</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" s="1">
+    <row r="550">
+      <c r="A550" s="1" t="n">
         <v>548</v>
       </c>
-      <c r="B550" s="2">
+      <c r="B550" s="2" t="n">
         <v>43916</v>
       </c>
-      <c r="C550">
+      <c r="C550" t="n">
         <v>194.05</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" s="1">
+    <row r="551">
+      <c r="A551" s="1" t="n">
         <v>549</v>
       </c>
-      <c r="B551" s="2">
+      <c r="B551" s="2" t="n">
         <v>43917</v>
       </c>
-      <c r="C551">
+      <c r="C551" t="n">
         <v>189.42</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" s="1">
+    <row r="552">
+      <c r="A552" s="1" t="n">
         <v>550</v>
       </c>
-      <c r="B552" s="2">
+      <c r="B552" s="2" t="n">
         <v>43920</v>
       </c>
-      <c r="C552">
+      <c r="C552" t="n">
         <v>194.94</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" s="1">
+    <row r="553">
+      <c r="A553" s="1" t="n">
         <v>551</v>
       </c>
-      <c r="B553" s="2">
+      <c r="B553" s="2" t="n">
         <v>43921</v>
       </c>
-      <c r="C553">
+      <c r="C553" t="n">
         <v>185.6</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" s="1">
+    <row r="554">
+      <c r="A554" s="1" t="n">
         <v>552</v>
       </c>
-      <c r="B554" s="2">
+      <c r="B554" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="C554">
+      <c r="C554" t="n">
         <v>177.57</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" s="1">
+    <row r="555">
+      <c r="A555" s="1" t="n">
         <v>553</v>
       </c>
-      <c r="B555" s="2">
+      <c r="B555" s="2" t="n">
         <v>43923</v>
       </c>
-      <c r="C555">
+      <c r="C555" t="n">
         <v>180.23</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="1">
+    <row r="556">
+      <c r="A556" s="1" t="n">
         <v>554</v>
       </c>
-      <c r="B556" s="2">
+      <c r="B556" s="2" t="n">
         <v>43924</v>
       </c>
-      <c r="C556">
+      <c r="C556" t="n">
         <v>177.64</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" s="1">
+    <row r="557">
+      <c r="A557" s="1" t="n">
         <v>555</v>
       </c>
-      <c r="B557" s="2">
+      <c r="B557" s="2" t="n">
         <v>43927</v>
       </c>
-      <c r="C557">
+      <c r="C557" t="n">
         <v>190.19</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="1">
+    <row r="558">
+      <c r="A558" s="1" t="n">
         <v>556</v>
       </c>
-      <c r="B558" s="2">
+      <c r="B558" s="2" t="n">
         <v>43928</v>
       </c>
-      <c r="C558">
+      <c r="C558" t="n">
         <v>191.15</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="1">
+    <row r="559">
+      <c r="A559" s="1" t="n">
         <v>557</v>
       </c>
-      <c r="B559" s="2">
+      <c r="B559" s="2" t="n">
         <v>43929</v>
       </c>
-      <c r="C559">
+      <c r="C559" t="n">
         <v>193.66</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="1">
+    <row r="560">
+      <c r="A560" s="1" t="n">
         <v>558</v>
       </c>
-      <c r="B560" s="2">
+      <c r="B560" s="2" t="n">
         <v>43930</v>
       </c>
-      <c r="C560">
+      <c r="C560" t="n">
         <v>200.33</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="1">
+    <row r="561">
+      <c r="A561" s="1" t="n">
         <v>559</v>
       </c>
-      <c r="B561" s="2">
+      <c r="B561" s="2" t="n">
         <v>43934</v>
       </c>
-      <c r="C561">
+      <c r="C561" t="n">
         <v>197.61</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" s="1">
+    <row r="562">
+      <c r="A562" s="1" t="n">
         <v>560</v>
       </c>
-      <c r="B562" s="2">
+      <c r="B562" s="2" t="n">
         <v>43935</v>
       </c>
-      <c r="C562">
+      <c r="C562" t="n">
         <v>205.94</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="1">
+    <row r="563">
+      <c r="A563" s="1" t="n">
         <v>561</v>
       </c>
-      <c r="B563" s="2">
+      <c r="B563" s="2" t="n">
         <v>43936</v>
       </c>
-      <c r="C563">
+      <c r="C563" t="n">
         <v>197.3</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" s="1">
+    <row r="564">
+      <c r="A564" s="1" t="n">
         <v>562</v>
       </c>
-      <c r="B564" s="2">
+      <c r="B564" s="2" t="n">
         <v>43937</v>
       </c>
-      <c r="C564">
+      <c r="C564" t="n">
         <v>198.66</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="1">
+    <row r="565">
+      <c r="A565" s="1" t="n">
         <v>563</v>
       </c>
-      <c r="B565" s="2">
+      <c r="B565" s="2" t="n">
         <v>43938</v>
       </c>
-      <c r="C565">
+      <c r="C565" t="n">
         <v>208.18</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="1">
+    <row r="566">
+      <c r="A566" s="1" t="n">
         <v>564</v>
       </c>
-      <c r="B566" s="2">
+      <c r="B566" s="2" t="n">
         <v>43941</v>
       </c>
-      <c r="C566">
+      <c r="C566" t="n">
         <v>204.83</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" s="1">
+    <row r="567">
+      <c r="A567" s="1" t="n">
         <v>565</v>
       </c>
-      <c r="B567" s="2">
+      <c r="B567" s="2" t="n">
         <v>43942</v>
       </c>
-      <c r="C567">
+      <c r="C567" t="n">
         <v>199.42</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="1">
+    <row r="568">
+      <c r="A568" s="1" t="n">
         <v>566</v>
       </c>
-      <c r="B568" s="2">
+      <c r="B568" s="2" t="n">
         <v>43943</v>
       </c>
-      <c r="C568">
+      <c r="C568" t="n">
         <v>202.96</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" s="1">
+    <row r="569">
+      <c r="A569" s="1" t="n">
         <v>567</v>
       </c>
-      <c r="B569" s="2">
+      <c r="B569" s="2" t="n">
         <v>43944</v>
       </c>
-      <c r="C569">
+      <c r="C569" t="n">
         <v>201.12</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570" s="1">
+    <row r="570">
+      <c r="A570" s="1" t="n">
         <v>568</v>
       </c>
-      <c r="B570" s="2">
+      <c r="B570" s="2" t="n">
         <v>43945</v>
       </c>
-      <c r="C570">
+      <c r="C570" t="n">
         <v>210.92</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A571" s="1">
+    <row r="571">
+      <c r="A571" s="1" t="n">
         <v>569</v>
       </c>
-      <c r="B571" s="2">
+      <c r="B571" s="2" t="n">
         <v>43948</v>
       </c>
-      <c r="C571">
+      <c r="C571" t="n">
         <v>216.47</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572" s="1">
+    <row r="572">
+      <c r="A572" s="1" t="n">
         <v>570</v>
       </c>
-      <c r="B572" s="2">
+      <c r="B572" s="2" t="n">
         <v>43949</v>
       </c>
-      <c r="C572">
+      <c r="C572" t="n">
         <v>216.34</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" s="1">
+    <row r="573">
+      <c r="A573" s="1" t="n">
         <v>571</v>
       </c>
-      <c r="B573" s="2">
+      <c r="B573" s="2" t="n">
         <v>43950</v>
       </c>
-      <c r="C573">
+      <c r="C573" t="n">
         <v>220.49</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574" s="1">
+    <row r="574">
+      <c r="A574" s="1" t="n">
         <v>572</v>
       </c>
-      <c r="B574" s="2">
+      <c r="B574" s="2" t="n">
         <v>43951</v>
       </c>
-      <c r="C574">
+      <c r="C574" t="n">
         <v>218.53</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575" s="1">
+    <row r="575">
+      <c r="A575" s="1" t="n">
         <v>573</v>
       </c>
-      <c r="B575" s="2">
+      <c r="B575" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="C575">
+      <c r="C575" t="n">
         <v>217.27</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576" s="1">
+    <row r="576">
+      <c r="A576" s="1" t="n">
         <v>574</v>
       </c>
-      <c r="B576" s="2">
+      <c r="B576" s="2" t="n">
         <v>43955</v>
       </c>
-      <c r="C576">
+      <c r="C576" t="n">
         <v>220.52</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A577" s="1">
+    <row r="577">
+      <c r="A577" s="1" t="n">
         <v>575</v>
       </c>
-      <c r="B577" s="2">
+      <c r="B577" s="2" t="n">
         <v>43956</v>
       </c>
-      <c r="C577">
+      <c r="C577" t="n">
         <v>224.27</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" s="1">
+    <row r="578">
+      <c r="A578" s="1" t="n">
         <v>576</v>
       </c>
-      <c r="B578" s="2">
+      <c r="B578" s="2" t="n">
         <v>43957</v>
       </c>
-      <c r="C578">
+      <c r="C578" t="n">
         <v>222.59</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579" s="1">
+    <row r="579">
+      <c r="A579" s="1" t="n">
         <v>577</v>
       </c>
-      <c r="B579" s="2">
+      <c r="B579" s="2" t="n">
         <v>43958</v>
       </c>
-      <c r="C579">
+      <c r="C579" t="n">
         <v>228.09</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A580" s="1">
+    <row r="580">
+      <c r="A580" s="1" t="n">
         <v>578</v>
       </c>
-      <c r="B580" s="2">
+      <c r="B580" s="2" t="n">
         <v>43959</v>
       </c>
-      <c r="C580">
+      <c r="C580" t="n">
         <v>233.04</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581" s="1">
+    <row r="581">
+      <c r="A581" s="1" t="n">
         <v>579</v>
       </c>
-      <c r="B581" s="2">
+      <c r="B581" s="2" t="n">
         <v>43962</v>
       </c>
-      <c r="C581">
+      <c r="C581" t="n">
         <v>235.16</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" s="1">
+    <row r="582">
+      <c r="A582" s="1" t="n">
         <v>580</v>
       </c>
-      <c r="B582" s="2">
+      <c r="B582" s="2" t="n">
         <v>43963</v>
       </c>
-      <c r="C582">
+      <c r="C582" t="n">
         <v>231.52</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A583" s="1">
+    <row r="583">
+      <c r="A583" s="1" t="n">
         <v>581</v>
       </c>
-      <c r="B583" s="2">
+      <c r="B583" s="2" t="n">
         <v>43964</v>
       </c>
-      <c r="C583">
+      <c r="C583" t="n">
         <v>228.73</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A584" s="1">
+    <row r="584">
+      <c r="A584" s="1" t="n">
         <v>582</v>
       </c>
-      <c r="B584" s="2">
+      <c r="B584" s="2" t="n">
         <v>43965</v>
       </c>
-      <c r="C584">
+      <c r="C584" t="n">
         <v>233.09</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A585" s="1">
+    <row r="585">
+      <c r="A585" s="1" t="n">
         <v>583</v>
       </c>
-      <c r="B585" s="2">
+      <c r="B585" s="2" t="n">
         <v>43966</v>
       </c>
-      <c r="C585">
+      <c r="C585" t="n">
         <v>237.91</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A586" s="1">
+    <row r="586">
+      <c r="A586" s="1" t="n">
         <v>584</v>
       </c>
-      <c r="B586" s="2">
+      <c r="B586" s="2" t="n">
         <v>43969</v>
       </c>
-      <c r="C586">
+      <c r="C586" t="n">
         <v>243.89</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" s="1">
+    <row r="587">
+      <c r="A587" s="1" t="n">
         <v>585</v>
       </c>
-      <c r="B587" s="2">
+      <c r="B587" s="2" t="n">
         <v>43970</v>
       </c>
-      <c r="C587">
+      <c r="C587" t="n">
         <v>236.69</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" s="1">
+    <row r="588">
+      <c r="A588" s="1" t="n">
         <v>586</v>
       </c>
-      <c r="B588" s="2">
+      <c r="B588" s="2" t="n">
         <v>43971</v>
       </c>
-      <c r="C588">
+      <c r="C588" t="n">
         <v>236.78</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589" s="1">
+    <row r="589">
+      <c r="A589" s="1" t="n">
         <v>587</v>
       </c>
-      <c r="B589" s="2">
+      <c r="B589" s="2" t="n">
         <v>43972</v>
       </c>
-      <c r="C589">
+      <c r="C589" t="n">
         <v>239.45</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" s="1">
+    <row r="590">
+      <c r="A590" s="1" t="n">
         <v>588</v>
       </c>
-      <c r="B590" s="2">
+      <c r="B590" s="2" t="n">
         <v>43973</v>
       </c>
-      <c r="C590">
+      <c r="C590" t="n">
         <v>240.44</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A591" s="1">
+    <row r="591">
+      <c r="A591" s="1" t="n">
         <v>589</v>
       </c>
-      <c r="B591" s="2">
+      <c r="B591" s="2" t="n">
         <v>43977</v>
       </c>
-      <c r="C591">
+      <c r="C591" t="n">
         <v>241.04</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" s="1">
+    <row r="592">
+      <c r="A592" s="1" t="n">
         <v>590</v>
       </c>
-      <c r="B592" s="2">
+      <c r="B592" s="2" t="n">
         <v>43978</v>
       </c>
-      <c r="C592">
+      <c r="C592" t="n">
         <v>245.89</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593" s="1">
+    <row r="593">
+      <c r="A593" s="1" t="n">
         <v>591</v>
       </c>
-      <c r="B593" s="2">
+      <c r="B593" s="2" t="n">
         <v>43979</v>
       </c>
-      <c r="C593">
+      <c r="C593" t="n">
         <v>243.68</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" s="1">
+    <row r="594">
+      <c r="A594" s="1" t="n">
         <v>592</v>
       </c>
-      <c r="B594" s="2">
+      <c r="B594" s="2" t="n">
         <v>43980</v>
       </c>
-      <c r="C594">
+      <c r="C594" t="n">
         <v>247.01</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" s="1">
+    <row r="595">
+      <c r="A595" s="1" t="n">
         <v>593</v>
       </c>
-      <c r="B595" s="2">
+      <c r="B595" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="C595">
+      <c r="C595" t="n">
         <v>245.82</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" s="1">
+    <row r="596">
+      <c r="A596" s="1" t="n">
         <v>594</v>
       </c>
-      <c r="B596" s="2">
+      <c r="B596" s="2" t="n">
         <v>43984</v>
       </c>
-      <c r="C596">
+      <c r="C596" t="n">
         <v>251.21</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597" s="1">
+    <row r="597">
+      <c r="A597" s="1" t="n">
         <v>595</v>
       </c>
-      <c r="B597" s="2">
+      <c r="B597" s="2" t="n">
         <v>43985</v>
       </c>
-      <c r="C597">
+      <c r="C597" t="n">
         <v>251</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" s="1">
+    <row r="598">
+      <c r="A598" s="1" t="n">
         <v>596</v>
       </c>
-      <c r="B598" s="2">
+      <c r="B598" s="2" t="n">
         <v>43986</v>
       </c>
-      <c r="C598">
+      <c r="C598" t="n">
         <v>248.95</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" s="1">
+    <row r="599">
+      <c r="A599" s="1" t="n">
         <v>597</v>
       </c>
-      <c r="B599" s="2">
+      <c r="B599" s="2" t="n">
         <v>43987</v>
       </c>
-      <c r="C599">
+      <c r="C599" t="n">
         <v>254.9</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" s="1">
+    <row r="600">
+      <c r="A600" s="1" t="n">
         <v>598</v>
       </c>
-      <c r="B600" s="2">
+      <c r="B600" s="2" t="n">
         <v>43990</v>
       </c>
-      <c r="C600">
+      <c r="C600" t="n">
         <v>256.77</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" s="1">
+    <row r="601">
+      <c r="A601" s="1" t="n">
         <v>599</v>
       </c>
-      <c r="B601" s="2">
+      <c r="B601" s="2" t="n">
         <v>43991</v>
       </c>
-      <c r="C601">
+      <c r="C601" t="n">
         <v>256.76</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" s="1">
+    <row r="602">
+      <c r="A602" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="B602" s="2">
+      <c r="B602" s="2" t="n">
         <v>43992</v>
       </c>
-      <c r="C602">
+      <c r="C602" t="n">
         <v>254.45</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" s="1">
+    <row r="603">
+      <c r="A603" s="1" t="n">
         <v>601</v>
       </c>
-      <c r="B603" s="2">
+      <c r="B603" s="2" t="n">
         <v>43993</v>
       </c>
-      <c r="C603">
+      <c r="C603" t="n">
         <v>239.47</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" s="1">
+    <row r="604">
+      <c r="A604" s="1" t="n">
         <v>602</v>
       </c>
-      <c r="B604" s="2">
+      <c r="B604" s="2" t="n">
         <v>43994</v>
       </c>
-      <c r="C604">
+      <c r="C604" t="n">
         <v>242.45</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" s="1">
+    <row r="605">
+      <c r="A605" s="1" t="n">
         <v>603</v>
       </c>
-      <c r="B605" s="2">
+      <c r="B605" s="2" t="n">
         <v>43997</v>
       </c>
-      <c r="C605">
+      <c r="C605" t="n">
         <v>241.36</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" s="1">
+    <row r="606">
+      <c r="A606" s="1" t="n">
         <v>604</v>
       </c>
-      <c r="B606" s="2">
+      <c r="B606" s="2" t="n">
         <v>43998</v>
       </c>
-      <c r="C606">
+      <c r="C606" t="n">
         <v>249.95</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" s="1">
+    <row r="607">
+      <c r="A607" s="1" t="n">
         <v>605</v>
       </c>
-      <c r="B607" s="2">
+      <c r="B607" s="2" t="n">
         <v>43999</v>
       </c>
-      <c r="C607">
+      <c r="C607" t="n">
         <v>250.85</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608" s="1">
+    <row r="608">
+      <c r="A608" s="1" t="n">
         <v>606</v>
       </c>
-      <c r="B608" s="2">
+      <c r="B608" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="C608">
+      <c r="C608" t="n">
         <v>249.21</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="1">
+    <row r="609">
+      <c r="A609" s="1" t="n">
         <v>607</v>
       </c>
-      <c r="B609" s="2">
+      <c r="B609" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="C609">
+      <c r="C609" t="n">
         <v>246.65</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="1">
+    <row r="610">
+      <c r="A610" s="1" t="n">
         <v>608</v>
       </c>
-      <c r="B610" s="2">
+      <c r="B610" s="2" t="n">
         <v>44004</v>
       </c>
-      <c r="C610">
+      <c r="C610" t="n">
         <v>249.16</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="1">
+    <row r="611">
+      <c r="A611" s="1" t="n">
         <v>609</v>
       </c>
-      <c r="B611" s="2">
+      <c r="B611" s="2" t="n">
         <v>44005</v>
       </c>
-      <c r="C611">
+      <c r="C611" t="n">
         <v>250.31</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="1">
+    <row r="612">
+      <c r="A612" s="1" t="n">
         <v>610</v>
       </c>
-      <c r="B612" s="2">
+      <c r="B612" s="2" t="n">
         <v>44006</v>
       </c>
-      <c r="C612">
+      <c r="C612" t="n">
         <v>246.13</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="1">
+    <row r="613">
+      <c r="A613" s="1" t="n">
         <v>611</v>
       </c>
-      <c r="B613" s="2">
+      <c r="B613" s="2" t="n">
         <v>44007</v>
       </c>
-      <c r="C613">
+      <c r="C613" t="n">
         <v>245.38</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" s="1">
+    <row r="614">
+      <c r="A614" s="1" t="n">
         <v>612</v>
       </c>
-      <c r="B614" s="2">
+      <c r="B614" s="2" t="n">
         <v>44008</v>
       </c>
-      <c r="C614">
+      <c r="C614" t="n">
         <v>241.01</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" s="1">
+    <row r="615">
+      <c r="A615" s="1" t="n">
         <v>613</v>
       </c>
-      <c r="B615" s="2">
+      <c r="B615" s="2" t="n">
         <v>44011</v>
       </c>
-      <c r="C615">
+      <c r="C615" t="n">
         <v>246.12</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" s="1">
+    <row r="616">
+      <c r="A616" s="1" t="n">
         <v>614</v>
       </c>
-      <c r="B616" s="2">
+      <c r="B616" s="2" t="n">
         <v>44012</v>
       </c>
-      <c r="C616">
+      <c r="C616" t="n">
         <v>250.51</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="1">
+    <row r="617">
+      <c r="A617" s="1" t="n">
         <v>615</v>
       </c>
-      <c r="B617" s="2">
+      <c r="B617" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="C617">
+      <c r="C617" t="n">
         <v>248.15</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" s="1">
+    <row r="618">
+      <c r="A618" s="1" t="n">
         <v>616</v>
       </c>
-      <c r="B618" s="2">
+      <c r="B618" s="2" t="n">
         <v>44014</v>
       </c>
-      <c r="C618">
+      <c r="C618" t="n">
         <v>248.5</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" s="1">
+    <row r="619">
+      <c r="A619" s="1" t="n">
         <v>617</v>
       </c>
-      <c r="B619" s="2">
+      <c r="B619" s="2" t="n">
         <v>44018</v>
       </c>
-      <c r="C619">
+      <c r="C619" t="n">
         <v>249.55</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" s="1">
+    <row r="620">
+      <c r="A620" s="1" t="n">
         <v>618</v>
       </c>
-      <c r="B620" s="2">
+      <c r="B620" s="2" t="n">
         <v>44019</v>
       </c>
-      <c r="C620">
+      <c r="C620" t="n">
         <v>247.35</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621" s="1">
+    <row r="621">
+      <c r="A621" s="1" t="n">
         <v>619</v>
       </c>
-      <c r="B621" s="2">
+      <c r="B621" s="2" t="n">
         <v>44020</v>
       </c>
-      <c r="C621">
+      <c r="C621" t="n">
         <v>249.17</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" s="1">
+    <row r="622">
+      <c r="A622" s="1" t="n">
         <v>620</v>
       </c>
-      <c r="B622" s="2">
+      <c r="B622" s="2" t="n">
         <v>44021</v>
       </c>
-      <c r="C622">
+      <c r="C622" t="n">
         <v>247.96</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" s="1">
+    <row r="623">
+      <c r="A623" s="1" t="n">
         <v>621</v>
       </c>
-      <c r="B623" s="2">
+      <c r="B623" s="2" t="n">
         <v>44022</v>
       </c>
-      <c r="C623">
+      <c r="C623" t="n">
         <v>250.11</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" s="1">
+    <row r="624">
+      <c r="A624" s="1" t="n">
         <v>622</v>
       </c>
-      <c r="B624" s="2">
+      <c r="B624" s="2" t="n">
         <v>44025</v>
       </c>
-      <c r="C624">
+      <c r="C624" t="n">
         <v>249.62</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" s="1">
+    <row r="625">
+      <c r="A625" s="1" t="n">
         <v>623</v>
       </c>
-      <c r="B625" s="2">
+      <c r="B625" s="2" t="n">
         <v>44026</v>
       </c>
-      <c r="C625">
-        <v>257.79000000000002</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626" s="1">
+      <c r="C625" t="n">
+        <v>257.79</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
         <v>624</v>
       </c>
-      <c r="B626" s="2">
+      <c r="B626" s="2" t="n">
         <v>44027</v>
       </c>
-      <c r="C626">
+      <c r="C626" t="n">
         <v>257.8</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627" s="1">
+    <row r="627">
+      <c r="A627" s="1" t="n">
         <v>625</v>
       </c>
-      <c r="B627" s="2">
+      <c r="B627" s="2" t="n">
         <v>44028</v>
       </c>
-      <c r="C627">
+      <c r="C627" t="n">
         <v>258.08</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628" s="1">
+    <row r="628">
+      <c r="A628" s="1" t="n">
         <v>626</v>
       </c>
-      <c r="B628" s="2">
+      <c r="B628" s="2" t="n">
         <v>44029</v>
       </c>
-      <c r="C628">
+      <c r="C628" t="n">
         <v>260.38</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629" s="1">
+    <row r="629">
+      <c r="A629" s="1" t="n">
         <v>627</v>
       </c>
-      <c r="B629" s="2">
+      <c r="B629" s="2" t="n">
         <v>44032</v>
       </c>
-      <c r="C629">
+      <c r="C629" t="n">
         <v>260.17</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630" s="1">
+    <row r="630">
+      <c r="A630" s="1" t="n">
         <v>628</v>
       </c>
-      <c r="B630" s="2">
+      <c r="B630" s="2" t="n">
         <v>44033</v>
       </c>
-      <c r="C630">
+      <c r="C630" t="n">
         <v>262.42</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A631" s="1">
+    <row r="631">
+      <c r="A631" s="1" t="n">
         <v>629</v>
       </c>
-      <c r="B631" s="2">
+      <c r="B631" s="2" t="n">
         <v>44034</v>
       </c>
-      <c r="C631">
+      <c r="C631" t="n">
         <v>265.17</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632" s="1">
+    <row r="632">
+      <c r="A632" s="1" t="n">
         <v>630</v>
       </c>
-      <c r="B632" s="2">
+      <c r="B632" s="2" t="n">
         <v>44035</v>
       </c>
-      <c r="C632">
+      <c r="C632" t="n">
         <v>263.81</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" s="1">
+    <row r="633">
+      <c r="A633" s="1" t="n">
         <v>631</v>
       </c>
-      <c r="B633" s="2">
+      <c r="B633" s="2" t="n">
         <v>44036</v>
       </c>
-      <c r="C633">
+      <c r="C633" t="n">
         <v>265.31</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634" s="1">
+    <row r="634">
+      <c r="A634" s="1" t="n">
         <v>632</v>
       </c>
-      <c r="B634" s="2">
+      <c r="B634" s="2" t="n">
         <v>44039</v>
       </c>
-      <c r="C634">
+      <c r="C634" t="n">
         <v>267.42</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A635" s="1">
+    <row r="635">
+      <c r="A635" s="1" t="n">
         <v>633</v>
       </c>
-      <c r="B635" s="2">
+      <c r="B635" s="2" t="n">
         <v>44040</v>
       </c>
-      <c r="C635">
-        <v>265.27999999999997</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A636" s="1">
+      <c r="C635" t="n">
+        <v>265.28</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
         <v>634</v>
       </c>
-      <c r="B636" s="2">
+      <c r="B636" s="2" t="n">
         <v>44041</v>
       </c>
-      <c r="C636">
-        <v>264.66000000000003</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A637" s="1">
+      <c r="C636" t="n">
+        <v>264.66</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
         <v>635</v>
       </c>
-      <c r="B637" s="2">
+      <c r="B637" s="2" t="n">
         <v>44042</v>
       </c>
-      <c r="C637">
+      <c r="C637" t="n">
         <v>266.31</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A638" s="1">
+    <row r="638">
+      <c r="A638" s="1" t="n">
         <v>636</v>
       </c>
-      <c r="B638" s="2">
+      <c r="B638" s="2" t="n">
         <v>44043</v>
       </c>
-      <c r="C638">
+      <c r="C638" t="n">
         <v>265.49</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A639" s="1">
+    <row r="639">
+      <c r="A639" s="1" t="n">
         <v>637</v>
       </c>
-      <c r="B639" s="2">
+      <c r="B639" s="2" t="n">
         <v>44046</v>
       </c>
-      <c r="C639">
+      <c r="C639" t="n">
         <v>266.18</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A640" s="1">
+    <row r="640">
+      <c r="A640" s="1" t="n">
         <v>638</v>
       </c>
-      <c r="B640" s="2">
+      <c r="B640" s="2" t="n">
         <v>44047</v>
       </c>
-      <c r="C640">
+      <c r="C640" t="n">
         <v>267.87</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A641" s="1">
+    <row r="641">
+      <c r="A641" s="1" t="n">
         <v>639</v>
       </c>
-      <c r="B641" s="2">
+      <c r="B641" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="C641">
+      <c r="C641" t="n">
         <v>267.48</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A642" s="1">
+    <row r="642">
+      <c r="A642" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="B642" s="2">
+      <c r="B642" s="2" t="n">
         <v>44049</v>
       </c>
-      <c r="C642">
+      <c r="C642" t="n">
         <v>269.37</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A643" s="1">
+    <row r="643">
+      <c r="A643" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="B643" s="2">
+      <c r="B643" s="2" t="n">
         <v>44050</v>
       </c>
-      <c r="C643">
+      <c r="C643" t="n">
         <v>271.64</v>
       </c>
     </row>

--- a/ml/stock_data/buy_sell_labels/HD.xlsx
+++ b/ml/stock_data/buy_sell_labels/HD.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cefadc21042b88c/PET_PROJECTS/Al-the-Trader/ml/stock_data/buy_sell_labels/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_050D37BF424AF64FE4296495425DCE3A87468D9C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C60110DA-1626-448C-8F3A-F83FB8BA3560}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,10 +66,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -60,16 +85,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,7090 +391,7085 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C643"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>43122</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>192.2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>43123</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>192.61</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>43124</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>193.85</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>43125</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>193.05</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>43126</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>194.8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>43129</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>192.63</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>43130</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>189.71</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>43131</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>188.85</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>43132</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>187.91</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>43133</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>182.34</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>43136</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>172.13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>43137</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>179.58</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>43138</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>179.82</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>43139</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>170.35</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>43140</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>173.08</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>43143</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>173.02</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>43144</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>172.7</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>43145</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>173.61</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>43146</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>174.16</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>43147</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>175.76</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>43151</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>175.51</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>43152</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>172.08</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>43153</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>174.35</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>43154</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>177.06</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>43157</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>177.16</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>43158</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>173.89</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>43159</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>171.34</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>43160</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>168.87</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>43161</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>167.76</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>43164</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>170.84</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>43165</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>170.75</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>43166</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>168.83</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>43167</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>168.22</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>43168</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>172.21</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>43171</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>169.9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>43172</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>168.61</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>43173</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>167.72</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>43174</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>168.35</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>43175</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>169.19</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>43178</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>167.43</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>43179</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>168.43</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>43180</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>168.3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>43181</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>165.72</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>43182</v>
       </c>
-      <c r="C45" t="n">
-        <v>162.42</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="C45">
+        <v>162.41999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>43185</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>166.75</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>43186</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>165.14</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>43187</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>165.22</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>43188</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>168.51</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>43192</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>163.46</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>43193</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>164.27</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="2">
         <v>43194</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>167.75</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>43195</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>169.35</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>43196</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>164.92</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>43199</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>163.09</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>43200</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>164.02</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>43201</v>
       </c>
-      <c r="C57" t="n">
-        <v>163.42</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="C57">
+        <v>163.41999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>43202</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>163.89</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>43203</v>
       </c>
-      <c r="C59" t="n">
-        <v>163.36</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="C59">
+        <v>163.36000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>43206</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>164.91</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>43207</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>165.36</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>43208</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>170.03</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>43209</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>167.41</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="2">
         <v>43210</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>167.34</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>43213</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>167.96</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>43214</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>166.64</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>43215</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>167.7</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>43216</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>175.58</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="2">
         <v>43217</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>176.28</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="2">
         <v>43220</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>174.71</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="2">
         <v>43221</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>174.55</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="2">
         <v>43222</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>175.76</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="2">
         <v>43223</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>173.19</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="2">
         <v>43224</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>174.93</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="2">
         <v>43227</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>173.54</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="2">
         <v>43228</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>174.94</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="2">
         <v>43229</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>176.18</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="2">
         <v>43230</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>176.94</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="2">
         <v>43231</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>179.92</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="2">
         <v>43234</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>180.65</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="2">
         <v>43235</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>177.72</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="2">
         <v>43236</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>176.2</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="2">
         <v>43237</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>175.21</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="2">
         <v>43238</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>177.19</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="2">
         <v>43241</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>179.43</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="2">
         <v>43242</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>176.67</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="2">
         <v>43243</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>176.48</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="2">
         <v>43244</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>176.93</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="2">
         <v>43245</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>176.65</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="2">
         <v>43249</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>174.9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="2">
         <v>43250</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>177.86</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="2">
         <v>43251</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>177.35</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="2">
         <v>43252</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>178.11</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="2">
         <v>43255</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>181.92</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="2">
         <v>43256</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>182.47</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="2">
         <v>43257</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>184.04</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="2">
         <v>43258</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>186.5</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="2">
         <v>43259</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>188.55</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="2">
         <v>43262</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>189.8</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="2">
         <v>43263</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>191.38</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="2">
         <v>43264</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>190.43</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="2">
         <v>43265</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>189.82</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="n">
+      <c r="B103" s="2">
         <v>43266</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>190.65</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="2">
         <v>43269</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>190.79</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="2">
         <v>43270</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>189.39</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="2">
         <v>43271</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>189.26</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="2">
         <v>43272</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>190.43</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="2">
         <v>43273</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>187.68</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="2">
         <v>43276</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>186.7</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="2">
         <v>43277</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>186.68</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="2">
         <v>43278</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>185.4</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="2">
         <v>43279</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>185.58</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="2">
         <v>43280</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>185.48</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="2">
         <v>43283</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>184.45</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="n">
+      <c r="B115" s="2">
         <v>43284</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>184.07</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="2">
         <v>43286</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>184.82</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="2">
         <v>43287</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>184.89</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="2">
         <v>43290</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>186.41</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="2">
         <v>43291</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>187.87</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="2">
         <v>43292</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>187.24</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="n">
+      <c r="B121" s="2">
         <v>43293</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>188.19</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="2">
         <v>43294</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>188.89</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="2">
         <v>43297</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>189.07</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="2">
         <v>43298</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>191.18</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="2">
         <v>43299</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>191.06</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="2">
         <v>43300</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>192.64</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="2">
         <v>43301</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>192.47</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="2">
         <v>43304</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>192.26</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="2">
         <v>43305</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>192.03</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="2">
         <v>43306</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>191.09</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="2">
         <v>43307</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>189.57</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="2">
         <v>43308</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>187.42</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="2">
         <v>43311</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>187.55</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="2">
         <v>43312</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>187.78</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="2">
         <v>43313</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>186.62</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="2">
         <v>43314</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>186.01</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="2">
         <v>43315</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>185.99</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="2">
         <v>43318</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>186.04</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="2">
         <v>43319</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>187.33</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="2">
         <v>43320</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>188.26</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="2">
         <v>43321</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>188.31</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="2">
         <v>43322</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>186.62</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="2">
         <v>43325</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>184.57</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="n">
+      <c r="B144" s="2">
         <v>43326</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>183.58</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="n">
+      <c r="B145" s="2">
         <v>43327</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>184.42</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="2">
         <v>43328</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>185.75</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
+      <c r="B147" s="2">
         <v>43329</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>185.92</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
+      <c r="B148" s="2">
         <v>43332</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>188.17</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
+      <c r="B149" s="2">
         <v>43333</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>190.36</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
+      <c r="B150" s="2">
         <v>43334</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>189.16</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="n">
+      <c r="B151" s="2">
         <v>43335</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>190.29</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
+      <c r="B152" s="2">
         <v>43336</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>191.37</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
+      <c r="B153" s="2">
         <v>43339</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>192.02</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
+      <c r="B154" s="2">
         <v>43340</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>192.01</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
+      <c r="B155" s="2">
         <v>43341</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>192.72</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
+      <c r="B156" s="2">
         <v>43342</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>190.4</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="n">
+      <c r="B157" s="2">
         <v>43343</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>191.85</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="n">
+      <c r="B158" s="2">
         <v>43347</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>195.97</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
+      <c r="B159" s="2">
         <v>43348</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>195.08</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="n">
+      <c r="B160" s="2">
         <v>43349</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>196.74</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="n">
+      <c r="B161" s="2">
         <v>43350</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>197.07</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="n">
+      <c r="B162" s="2">
         <v>43353</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>201.33</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="n">
+      <c r="B163" s="2">
         <v>43354</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>204.35</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="n">
+      <c r="B164" s="2">
         <v>43355</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>202.56</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="n">
+      <c r="B165" s="2">
         <v>43356</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>200.14</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="n">
+      <c r="B166" s="2">
         <v>43357</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>199.78</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="n">
+      <c r="B167" s="2">
         <v>43360</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>199.14</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="n">
+      <c r="B168" s="2">
         <v>43361</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>201.64</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="n">
+      <c r="B169" s="2">
         <v>43362</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>202.27</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="n">
+      <c r="B170" s="2">
         <v>43363</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>201.68</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="n">
+      <c r="B171" s="2">
         <v>43364</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>202.95</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="n">
+      <c r="B172" s="2">
         <v>43367</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>198.75</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="n">
+      <c r="B173" s="2">
         <v>43368</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>198.24</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="n">
+      <c r="B174" s="2">
         <v>43369</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>198.3</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="n">
+      <c r="B175" s="2">
         <v>43370</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>197.65</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="n">
+      <c r="B176" s="2">
         <v>43371</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>197.94</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="n">
+      <c r="B177" s="2">
         <v>43374</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>198.37</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="n">
+      <c r="B178" s="2">
         <v>43375</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>195.65</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="n">
+      <c r="B179" s="2">
         <v>43376</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>194.69</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="n">
+      <c r="B180" s="2">
         <v>43377</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>190.01</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="n">
+      <c r="B181" s="2">
         <v>43378</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>187.65</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="n">
+      <c r="B182" s="2">
         <v>43381</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>189.59</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="n">
+      <c r="B183" s="2">
         <v>43382</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>187.05</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="n">
+      <c r="B184" s="2">
         <v>43383</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>185.09</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="n">
+      <c r="B185" s="2">
         <v>43384</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>181.31</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="n">
+      <c r="B186" s="2">
         <v>43385</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>183.92</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="n">
+      <c r="B187" s="2">
         <v>43388</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>182.67</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="n">
+      <c r="B188" s="2">
         <v>43389</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>184.98</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="n">
+      <c r="B189" s="2">
         <v>43390</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>176.94</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="n">
+      <c r="B190" s="2">
         <v>43391</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>172.42</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="n">
+      <c r="B191" s="2">
         <v>43392</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>171.86</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="n">
+      <c r="B192" s="2">
         <v>43395</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>170.81</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="n">
+      <c r="B193" s="2">
         <v>43396</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>170.6</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="n">
+      <c r="B194" s="2">
         <v>43397</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>169.11</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="n">
+      <c r="B195" s="2">
         <v>43398</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>171.11</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="n">
+      <c r="B196" s="2">
         <v>43399</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>164.58</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="n">
+      <c r="B197" s="2">
         <v>43402</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>165.5</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="n">
+      <c r="B198" s="2">
         <v>43403</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>168.41</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="n">
+      <c r="B199" s="2">
         <v>43404</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>168.06</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="n">
+      <c r="B200" s="2">
         <v>43405</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>172.44</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="n">
+      <c r="B201" s="2">
         <v>43406</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>171.93</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="n">
+      <c r="B202" s="2">
         <v>43409</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>174.09</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="n">
+      <c r="B203" s="2">
         <v>43410</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>173.92</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="n">
+      <c r="B204" s="2">
         <v>43411</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>178.91</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="n">
+      <c r="B205" s="2">
         <v>43412</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>179.65</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="n">
+      <c r="B206" s="2">
         <v>43413</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>177.72</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="n">
+      <c r="B207" s="2">
         <v>43416</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>171.46</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="n">
+      <c r="B208" s="2">
         <v>43417</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>171.05</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="n">
+      <c r="B209" s="2">
         <v>43418</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>171.91</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="n">
+      <c r="B210" s="2">
         <v>43419</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>169.48</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="n">
+      <c r="B211" s="2">
         <v>43420</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>169.15</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="n">
+      <c r="B212" s="2">
         <v>43423</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>165.88</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="n">
+      <c r="B213" s="2">
         <v>43424</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>161.54</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="n">
+      <c r="B214" s="2">
         <v>43425</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>161.78</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="n">
+      <c r="B215" s="2">
         <v>43427</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>161.35</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="n">
+      <c r="B216" s="2">
         <v>43430</v>
       </c>
-      <c r="C216" t="n">
-        <v>162.27</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="C216">
+        <v>162.27000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="n">
+      <c r="B217" s="2">
         <v>43431</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>165.52</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="n">
+      <c r="B218" s="2">
         <v>43432</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>170.56</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="n">
+      <c r="B219" s="2">
         <v>43433</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>168.86</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="n">
+      <c r="B220" s="2">
         <v>43434</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>173.34</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="n">
+      <c r="B221" s="2">
         <v>43437</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>174.7</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="n">
+      <c r="B222" s="2">
         <v>43438</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>168.51</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="n">
+      <c r="B223" s="2">
         <v>43440</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>169.15</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="n">
+      <c r="B224" s="2">
         <v>43441</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>166.1</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="n">
+      <c r="B225" s="2">
         <v>43444</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>165.04</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="n">
+      <c r="B226" s="2">
         <v>43445</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>165.54</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="n">
+      <c r="B227" s="2">
         <v>43446</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>167.46</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="n">
+      <c r="B228" s="2">
         <v>43447</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>167.14</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="n">
+      <c r="B229" s="2">
         <v>43448</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>165.62</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="n">
+      <c r="B230" s="2">
         <v>43451</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>161.47</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="n">
+      <c r="B231" s="2">
         <v>43452</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>163.46</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="n">
+      <c r="B232" s="2">
         <v>43453</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>161.07</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="n">
+      <c r="B233" s="2">
         <v>43454</v>
       </c>
-      <c r="C233" t="n">
-        <v>157.8</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="C233">
+        <v>157.80000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="n">
+      <c r="B234" s="2">
         <v>43455</v>
       </c>
-      <c r="C234" t="n">
-        <v>154.27</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="C234">
+        <v>154.27000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="n">
+      <c r="B235" s="2">
         <v>43458</v>
       </c>
-      <c r="C235" t="n">
-        <v>152.02</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="C235">
+        <v>152.02000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="n">
+      <c r="B236" s="2">
         <v>43460</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>161.76</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="n">
+      <c r="B237" s="2">
         <v>43461</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>163.72</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="n">
+      <c r="B238" s="2">
         <v>43462</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>163.63</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="n">
+      <c r="B239" s="2">
         <v>43465</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>165.17</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="n">
+      <c r="B240" s="2">
         <v>43467</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>165.73</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="n">
+      <c r="B241" s="2">
         <v>43468</v>
       </c>
-      <c r="C241" t="n">
-        <v>162.08</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="C241">
+        <v>162.08000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="n">
+      <c r="B242" s="2">
         <v>43469</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>166.9</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" s="2" t="n">
+      <c r="B243" s="2">
         <v>43472</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>170.18</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="n">
+      <c r="B244" s="2">
         <v>43473</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>171</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="n">
+      <c r="B245" s="2">
         <v>43474</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>172.77</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="n">
+      <c r="B246" s="2">
         <v>43475</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>172.13</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="n">
+      <c r="B247" s="2">
         <v>43476</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>172.46</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="n">
+      <c r="B248" s="2">
         <v>43479</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>171.89</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="n">
+      <c r="B249" s="2">
         <v>43480</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>169.64</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="n">
+      <c r="B250" s="2">
         <v>43481</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>170.18</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="n">
+      <c r="B251" s="2">
         <v>43482</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>168.1</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="n">
+      <c r="B252" s="2">
         <v>43483</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>172.63</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="n">
+      <c r="B253" s="2">
         <v>43487</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>170.25</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" s="2" t="n">
+      <c r="B254" s="2">
         <v>43488</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>170.04</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" s="2" t="n">
+      <c r="B255" s="2">
         <v>43489</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>170.42</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" s="2" t="n">
+      <c r="B256" s="2">
         <v>43490</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>173.41</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="n">
+      <c r="B257" s="2">
         <v>43493</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>172.87</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" s="2" t="n">
+      <c r="B258" s="2">
         <v>43494</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>172.73</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" s="2" t="n">
+      <c r="B259" s="2">
         <v>43495</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>175.13</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" s="2" t="n">
+      <c r="B260" s="2">
         <v>43496</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>176.42</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" s="2" t="n">
+      <c r="B261" s="2">
         <v>43497</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>177.23</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" s="2" t="n">
+      <c r="B262" s="2">
         <v>43500</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>179.21</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" s="2" t="n">
+      <c r="B263" s="2">
         <v>43501</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>179.17</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" s="2" t="n">
+      <c r="B264" s="2">
         <v>43502</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>177.57</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" s="2" t="n">
+      <c r="B265" s="2">
         <v>43503</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>176.94</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" s="2" t="n">
+      <c r="B266" s="2">
         <v>43504</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>177.39</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" s="2" t="n">
+      <c r="B267" s="2">
         <v>43507</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>175.84</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" s="2" t="n">
+      <c r="B268" s="2">
         <v>43508</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>178.34</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" s="2" t="n">
+      <c r="B269" s="2">
         <v>43509</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>181.11</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" s="2" t="n">
+      <c r="B270" s="2">
         <v>43510</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>180.44</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" s="2" t="n">
+      <c r="B271" s="2">
         <v>43511</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>184.94</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" s="2" t="n">
+      <c r="B272" s="2">
         <v>43515</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>184.88</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" s="2" t="n">
+      <c r="B273" s="2">
         <v>43516</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>184.42</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" s="2" t="n">
+      <c r="B274" s="2">
         <v>43517</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>184.39</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" s="2" t="n">
+      <c r="B275" s="2">
         <v>43518</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>184.94</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" s="2" t="n">
+      <c r="B276" s="2">
         <v>43521</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>182.62</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" s="2" t="n">
+      <c r="B277" s="2">
         <v>43522</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>181.01</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" s="2" t="n">
+      <c r="B278" s="2">
         <v>43523</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>176.56</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" s="2" t="n">
+      <c r="B279" s="2">
         <v>43524</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>177.97</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" s="2" t="n">
+      <c r="B280" s="2">
         <v>43525</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>178</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" s="2" t="n">
+      <c r="B281" s="2">
         <v>43528</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>176.69</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" s="2" t="n">
+      <c r="B282" s="2">
         <v>43529</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>176.87</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" s="2" t="n">
+      <c r="B283" s="2">
         <v>43530</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>177.31</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" s="2" t="n">
+      <c r="B284" s="2">
         <v>43531</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>175.44</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" s="2" t="n">
+      <c r="B285" s="2">
         <v>43532</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>174.21</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" s="2" t="n">
+      <c r="B286" s="2">
         <v>43535</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>175.38</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" s="2" t="n">
+      <c r="B287" s="2">
         <v>43536</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>176.87</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" s="2" t="n">
+      <c r="B288" s="2">
         <v>43537</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>175.42</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" s="2" t="n">
+      <c r="B289" s="2">
         <v>43538</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>175.88</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" s="2" t="n">
+      <c r="B290" s="2">
         <v>43539</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>176.48</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" s="2" t="n">
+      <c r="B291" s="2">
         <v>43542</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>177.63</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" s="2" t="n">
+      <c r="B292" s="2">
         <v>43543</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>178.32</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" s="2" t="n">
+      <c r="B293" s="2">
         <v>43544</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>180.23</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" s="2" t="n">
+      <c r="B294" s="2">
         <v>43545</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>183.97</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" s="2" t="n">
+      <c r="B295" s="2">
         <v>43546</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>182.79</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" s="2" t="n">
+      <c r="B296" s="2">
         <v>43549</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>183.69</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" s="2" t="n">
+      <c r="B297" s="2">
         <v>43550</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>183.36</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" s="2" t="n">
+      <c r="B298" s="2">
         <v>43551</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>183.28</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" s="2" t="n">
+      <c r="B299" s="2">
         <v>43552</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>184.06</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" s="2" t="n">
+      <c r="B300" s="2">
         <v>43553</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>185.83</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" s="2" t="n">
+      <c r="B301" s="2">
         <v>43556</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>189.46</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" s="2" t="n">
+      <c r="B302" s="2">
         <v>43557</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>188.18</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" s="2" t="n">
+      <c r="B303" s="2">
         <v>43558</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>192.34</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" s="2" t="n">
+      <c r="B304" s="2">
         <v>43559</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>194.12</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" s="2" t="n">
+      <c r="B305" s="2">
         <v>43560</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>195.68</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" s="2" t="n">
+      <c r="B306" s="2">
         <v>43563</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>197.12</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" s="2" t="n">
+      <c r="B307" s="2">
         <v>43564</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>194.56</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" s="2" t="n">
+      <c r="B308" s="2">
         <v>43565</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>193.13</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" s="2" t="n">
+      <c r="B309" s="2">
         <v>43566</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>195.12</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" s="2" t="n">
+      <c r="B310" s="2">
         <v>43567</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>197.42</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" s="2" t="n">
+      <c r="B311" s="2">
         <v>43570</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>198.39</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" s="2" t="n">
+      <c r="B312" s="2">
         <v>43571</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>198.02</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" s="2" t="n">
+      <c r="B313" s="2">
         <v>43572</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>200.03</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" s="2" t="n">
+      <c r="B314" s="2">
         <v>43573</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>199.17</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" s="2" t="n">
+      <c r="B315" s="2">
         <v>43577</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>198.32</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" s="2" t="n">
+      <c r="B316" s="2">
         <v>43578</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>199.55</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" s="2" t="n">
+      <c r="B317" s="2">
         <v>43579</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>200.19</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" s="2" t="n">
+      <c r="B318" s="2">
         <v>43580</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>199.98</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" s="2" t="n">
+      <c r="B319" s="2">
         <v>43581</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>197.18</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" s="2" t="n">
+      <c r="B320" s="2">
         <v>43584</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>195.78</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" s="2" t="n">
+      <c r="B321" s="2">
         <v>43585</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>197.27</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" s="2" t="n">
+      <c r="B322" s="2">
         <v>43586</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>192.52</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" s="2" t="n">
+      <c r="B323" s="2">
         <v>43587</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>194.66</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" s="2" t="n">
+      <c r="B324" s="2">
         <v>43588</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>194.23</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" s="2" t="n">
+      <c r="B325" s="2">
         <v>43591</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>193.33</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" s="2" t="n">
+      <c r="B326" s="2">
         <v>43592</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>188.62</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" s="2" t="n">
+      <c r="B327" s="2">
         <v>43593</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>189.01</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" s="2" t="n">
+      <c r="B328" s="2">
         <v>43594</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>188.44</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" s="2" t="n">
+      <c r="B329" s="2">
         <v>43595</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>188.44</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" s="2" t="n">
+      <c r="B330" s="2">
         <v>43598</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>184.33</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" s="2" t="n">
+      <c r="B331" s="2">
         <v>43599</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>185.57</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" s="2" t="n">
+      <c r="B332" s="2">
         <v>43600</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>185.71</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" s="2" t="n">
+      <c r="B333" s="2">
         <v>43601</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>186.31</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" s="2" t="n">
+      <c r="B334" s="2">
         <v>43602</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>186.5</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" s="2" t="n">
+      <c r="B335" s="2">
         <v>43605</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>184.92</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" s="2" t="n">
+      <c r="B336" s="2">
         <v>43606</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>185.41</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" s="2" t="n">
+      <c r="B337" s="2">
         <v>43607</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>182.95</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" s="2" t="n">
+      <c r="B338" s="2">
         <v>43608</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>185.94</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" s="2" t="n">
+      <c r="B339" s="2">
         <v>43609</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>187.48</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" s="2" t="n">
+      <c r="B340" s="2">
         <v>43613</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>185.5</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" s="2" t="n">
+      <c r="B341" s="2">
         <v>43614</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>183.99</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" s="2" t="n">
+      <c r="B342" s="2">
         <v>43615</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>185.05</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" s="2" t="n">
+      <c r="B343" s="2">
         <v>43616</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>183.86</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" s="2" t="n">
+      <c r="B344" s="2">
         <v>43619</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>183.59</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" s="2" t="n">
+      <c r="B345" s="2">
         <v>43620</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>189.09</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" s="2" t="n">
+      <c r="B346" s="2">
         <v>43621</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>191.82</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" s="2" t="n">
+      <c r="B347" s="2">
         <v>43622</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>192.29</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" s="2" t="n">
+      <c r="B348" s="2">
         <v>43623</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>192.41</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" s="2" t="n">
+      <c r="B349" s="2">
         <v>43626</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>193.14</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" s="2" t="n">
+      <c r="B350" s="2">
         <v>43627</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>193.1</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" s="2" t="n">
+      <c r="B351" s="2">
         <v>43628</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>194.01</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" s="2" t="n">
+      <c r="B352" s="2">
         <v>43629</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>197.34</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" s="2" t="n">
+      <c r="B353" s="2">
         <v>43630</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>200.67</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" s="2" t="n">
+      <c r="B354" s="2">
         <v>43633</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>201.85</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" s="2" t="n">
+      <c r="B355" s="2">
         <v>43634</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>202.34</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" s="2" t="n">
+      <c r="B356" s="2">
         <v>43635</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>202.79</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" s="2" t="n">
+      <c r="B357" s="2">
         <v>43636</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>206.02</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" s="2" t="n">
+      <c r="B358" s="2">
         <v>43637</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>204.2</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" s="2" t="n">
+      <c r="B359" s="2">
         <v>43640</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>200.41</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" s="2" t="n">
+      <c r="B360" s="2">
         <v>43641</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>199.67</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" s="2" t="n">
+      <c r="B361" s="2">
         <v>43642</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>201.31</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" s="2" t="n">
+      <c r="B362" s="2">
         <v>43643</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>201.89</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" s="2" t="n">
+      <c r="B363" s="2">
         <v>43644</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>202.82</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" s="2" t="n">
+      <c r="B364" s="2">
         <v>43647</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>205.07</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" s="2" t="n">
+      <c r="B365" s="2">
         <v>43648</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>204.93</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" s="2" t="n">
+      <c r="B366" s="2">
         <v>43649</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>206.85</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" s="2" t="n">
+      <c r="B367" s="2">
         <v>43651</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>206.22</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" s="2" t="n">
+      <c r="B368" s="2">
         <v>43654</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>207.64</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" s="2" t="n">
+      <c r="B369" s="2">
         <v>43655</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>206.75</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" s="2" t="n">
+      <c r="B370" s="2">
         <v>43656</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>205.53</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" s="2" t="n">
+      <c r="B371" s="2">
         <v>43657</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>208.74</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" s="2" t="n">
+      <c r="B372" s="2">
         <v>43658</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>212.82</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" s="2" t="n">
+      <c r="B373" s="2">
         <v>43661</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>213.28</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" s="2" t="n">
+      <c r="B374" s="2">
         <v>43662</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>211.88</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" s="2" t="n">
+      <c r="B375" s="2">
         <v>43663</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>210.27</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" s="2" t="n">
+      <c r="B376" s="2">
         <v>43664</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>209.13</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" s="2" t="n">
+      <c r="B377" s="2">
         <v>43665</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>207.76</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" s="2" t="n">
+      <c r="B378" s="2">
         <v>43668</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>206.04</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" s="2" t="n">
+      <c r="B379" s="2">
         <v>43669</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>207.8</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" s="2" t="n">
+      <c r="B380" s="2">
         <v>43670</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>209.39</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" s="2" t="n">
+      <c r="B381" s="2">
         <v>43671</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>210.21</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" s="2" t="n">
+      <c r="B382" s="2">
         <v>43672</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>211.54</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" s="2" t="n">
+      <c r="B383" s="2">
         <v>43675</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>212.64</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" s="2" t="n">
+      <c r="B384" s="2">
         <v>43676</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>211.98</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" s="2" t="n">
+      <c r="B385" s="2">
         <v>43677</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>208.4</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" s="2" t="n">
+      <c r="B386" s="2">
         <v>43678</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>207.56</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" s="2" t="n">
+      <c r="B387" s="2">
         <v>43679</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>206.89</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" s="2" t="n">
+      <c r="B388" s="2">
         <v>43682</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>199.86</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" s="2" t="n">
+      <c r="B389" s="2">
         <v>43683</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>203.63</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" s="2" t="n">
+      <c r="B390" s="2">
         <v>43684</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>202.76</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" s="2" t="n">
+      <c r="B391" s="2">
         <v>43685</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>206.33</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" s="2" t="n">
+      <c r="B392" s="2">
         <v>43686</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>204.82</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393" s="2" t="n">
+      <c r="B393" s="2">
         <v>43689</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>201.88</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394" s="2" t="n">
+      <c r="B394" s="2">
         <v>43690</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>203.17</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" s="2" t="n">
+      <c r="B395" s="2">
         <v>43691</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>196.6</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396" s="2" t="n">
+      <c r="B396" s="2">
         <v>43692</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>196.79</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" s="2" t="n">
+      <c r="B397" s="2">
         <v>43693</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>198.6</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" s="2" t="n">
+      <c r="B398" s="2">
         <v>43696</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>202.8</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" s="2" t="n">
+      <c r="B399" s="2">
         <v>43697</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>211.71</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" s="2" t="n">
+      <c r="B400" s="2">
         <v>43698</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>214.94</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401" s="2" t="n">
+      <c r="B401" s="2">
         <v>43699</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>215.54</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402" s="2" t="n">
+      <c r="B402" s="2">
         <v>43700</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>212.08</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403" s="2" t="n">
+      <c r="B403" s="2">
         <v>43703</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>213.23</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404" s="2" t="n">
+      <c r="B404" s="2">
         <v>43704</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>212.8</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405" s="2" t="n">
+      <c r="B405" s="2">
         <v>43705</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>216.45</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" s="2" t="n">
+      <c r="B406" s="2">
         <v>43706</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>221.69</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" s="2" t="n">
+      <c r="B407" s="2">
         <v>43707</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>222.26</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" s="2" t="n">
+      <c r="B408" s="2">
         <v>43711</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>218.52</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" s="2" t="n">
+      <c r="B409" s="2">
         <v>43712</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>219.93</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410" s="2" t="n">
+      <c r="B410" s="2">
         <v>43713</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>223.86</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411" s="2" t="n">
+      <c r="B411" s="2">
         <v>43714</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>226.78</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412" s="2" t="n">
+      <c r="B412" s="2">
         <v>43717</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>228.49</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413" s="2" t="n">
+      <c r="B413" s="2">
         <v>43718</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>228.62</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" s="2" t="n">
+      <c r="B414" s="2">
         <v>43719</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>228.28</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" s="2" t="n">
+      <c r="B415" s="2">
         <v>43720</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>229.4</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" s="2" t="n">
+      <c r="B416" s="2">
         <v>43721</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>229.58</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" s="2" t="n">
+      <c r="B417" s="2">
         <v>43724</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>226.64</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" s="2" t="n">
+      <c r="B418" s="2">
         <v>43725</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>225.88</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419" s="2" t="n">
+      <c r="B419" s="2">
         <v>43726</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>226.49</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" s="2" t="n">
+      <c r="B420" s="2">
         <v>43727</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>223.83</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" s="2" t="n">
+      <c r="B421" s="2">
         <v>43728</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>220.44</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422" s="2" t="n">
+      <c r="B422" s="2">
         <v>43731</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>221.99</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423" s="2" t="n">
+      <c r="B423" s="2">
         <v>43732</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>221.17</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" s="2" t="n">
+      <c r="B424" s="2">
         <v>43733</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>223.81</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" s="2" t="n">
+      <c r="B425" s="2">
         <v>43734</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>225.47</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" s="2" t="n">
+      <c r="B426" s="2">
         <v>43735</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>225.53</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" s="2" t="n">
+      <c r="B427" s="2">
         <v>43738</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>227.65</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428" s="2" t="n">
+      <c r="B428" s="2">
         <v>43739</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>226.73</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429" s="2" t="n">
+      <c r="B429" s="2">
         <v>43740</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>221.31</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430" s="2" t="n">
+      <c r="B430" s="2">
         <v>43741</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>222.54</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431" s="2" t="n">
+      <c r="B431" s="2">
         <v>43742</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>223.64</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" s="2" t="n">
+      <c r="B432" s="2">
         <v>43745</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>222.47</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" s="2" t="n">
+      <c r="B433" s="2">
         <v>43746</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>222.4</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" s="2" t="n">
+      <c r="B434" s="2">
         <v>43747</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>224.63</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" s="2" t="n">
+      <c r="B435" s="2">
         <v>43748</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>227.25</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" s="2" t="n">
+      <c r="B436" s="2">
         <v>43749</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>230.24</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437" s="2" t="n">
+      <c r="B437" s="2">
         <v>43752</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>229.77</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438" s="2" t="n">
+      <c r="B438" s="2">
         <v>43753</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>231.19</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439" s="2" t="n">
+      <c r="B439" s="2">
         <v>43754</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>231.46</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440" s="2" t="n">
+      <c r="B440" s="2">
         <v>43755</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>232.31</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441" s="2" t="n">
+      <c r="B441" s="2">
         <v>43756</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>233.45</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" s="2" t="n">
+      <c r="B442" s="2">
         <v>43759</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>232.25</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" s="2" t="n">
+      <c r="B443" s="2">
         <v>43760</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>232.74</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" s="2" t="n">
+      <c r="B444" s="2">
         <v>43761</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>230.25</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" s="2" t="n">
+      <c r="B445" s="2">
         <v>43762</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>229.49</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446" s="2" t="n">
+      <c r="B446" s="2">
         <v>43763</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>229.97</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447" s="2" t="n">
+      <c r="B447" s="2">
         <v>43766</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>232.34</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" s="2" t="n">
+      <c r="B448" s="2">
         <v>43767</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>229.73</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" s="2" t="n">
+      <c r="B449" s="2">
         <v>43768</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>231.79</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" s="2" t="n">
+      <c r="B450" s="2">
         <v>43769</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>230.17</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" s="2" t="n">
+      <c r="B451" s="2">
         <v>43770</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>232.87</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" s="2" t="n">
+      <c r="B452" s="2">
         <v>43773</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>230.5</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" s="2" t="n">
+      <c r="B453" s="2">
         <v>43774</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>227.83</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" s="2" t="n">
+      <c r="B454" s="2">
         <v>43775</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>229.61</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" s="2" t="n">
+      <c r="B455" s="2">
         <v>43776</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>228.56</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" s="2" t="n">
+      <c r="B456" s="2">
         <v>43777</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>228.46</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" s="2" t="n">
+      <c r="B457" s="2">
         <v>43780</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>227.44</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" s="2" t="n">
+      <c r="B458" s="2">
         <v>43781</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>228.73</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459" s="2" t="n">
+      <c r="B459" s="2">
         <v>43782</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>230.38</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" s="2" t="n">
+      <c r="B460" s="2">
         <v>43783</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>232.1</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" s="2" t="n">
+      <c r="B461" s="2">
         <v>43784</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>232.82</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" s="2" t="n">
+      <c r="B462" s="2">
         <v>43787</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>234.36</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" s="2" t="n">
+      <c r="B463" s="2">
         <v>43788</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>221.61</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464" s="2" t="n">
+      <c r="B464" s="2">
         <v>43789</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>216.74</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" s="2" t="n">
+      <c r="B465" s="2">
         <v>43790</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>214.43</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" s="2" t="n">
+      <c r="B466" s="2">
         <v>43791</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>213.93</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" s="2" t="n">
+      <c r="B467" s="2">
         <v>43794</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>214.29</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" s="2" t="n">
+      <c r="B468" s="2">
         <v>43795</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>216.61</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" s="2" t="n">
+      <c r="B469" s="2">
         <v>43796</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>218.8</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" s="2" t="n">
+      <c r="B470" s="2">
         <v>43798</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>216.36</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" s="2" t="n">
+      <c r="B471" s="2">
         <v>43801</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>213.52</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" s="2" t="n">
+      <c r="B472" s="2">
         <v>43802</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>209.97</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" s="2" t="n">
+      <c r="B473" s="2">
         <v>43803</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>211.41</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" s="2" t="n">
+      <c r="B474" s="2">
         <v>43804</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>210.33</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" s="2" t="n">
+      <c r="B475" s="2">
         <v>43805</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>211.59</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" s="2" t="n">
+      <c r="B476" s="2">
         <v>43808</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>213.81</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477" s="2" t="n">
+      <c r="B477" s="2">
         <v>43809</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>213.19</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" s="2" t="n">
+      <c r="B478" s="2">
         <v>43810</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>209.34</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" s="2" t="n">
+      <c r="B479" s="2">
         <v>43811</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>209.38</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" s="2" t="n">
+      <c r="B480" s="2">
         <v>43812</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>211.39</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" s="2" t="n">
+      <c r="B481" s="2">
         <v>43815</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>212.83</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482" s="2" t="n">
+      <c r="B482" s="2">
         <v>43816</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>214.99</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483" s="2" t="n">
+      <c r="B483" s="2">
         <v>43817</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>215.27</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484" s="2" t="n">
+      <c r="B484" s="2">
         <v>43818</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>217.46</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485" s="2" t="n">
+      <c r="B485" s="2">
         <v>43819</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>218.42</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486" s="2" t="n">
+      <c r="B486" s="2">
         <v>43822</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>216.46</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" s="2" t="n">
+      <c r="B487" s="2">
         <v>43823</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>217.9</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" s="2" t="n">
+      <c r="B488" s="2">
         <v>43825</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>218.05</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" s="2" t="n">
+      <c r="B489" s="2">
         <v>43826</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>217.21</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" s="2" t="n">
+      <c r="B490" s="2">
         <v>43829</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>214.58</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" s="2" t="n">
+      <c r="B491" s="2">
         <v>43830</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>215.64</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" s="2" t="n">
+      <c r="B492" s="2">
         <v>43832</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>216.9</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" s="2" t="n">
+      <c r="B493" s="2">
         <v>43833</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>216.18</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" s="2" t="n">
+      <c r="B494" s="2">
         <v>43836</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>217.2</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" s="2" t="n">
+      <c r="B495" s="2">
         <v>43837</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>215.78</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" s="2" t="n">
+      <c r="B496" s="2">
         <v>43838</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>219.01</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" s="2" t="n">
+      <c r="B497" s="2">
         <v>43839</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>222.37</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" s="2" t="n">
+      <c r="B498" s="2">
         <v>43840</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>221.41</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" s="2" t="n">
+      <c r="B499" s="2">
         <v>43843</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>220.54</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" s="2" t="n">
+      <c r="B500" s="2">
         <v>43844</v>
       </c>
-      <c r="C500" t="n">
+      <c r="C500">
         <v>220.02</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" s="2" t="n">
+      <c r="B501" s="2">
         <v>43845</v>
       </c>
-      <c r="C501" t="n">
+      <c r="C501">
         <v>221.77</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" s="2" t="n">
+      <c r="B502" s="2">
         <v>43846</v>
       </c>
-      <c r="C502" t="n">
+      <c r="C502">
         <v>225.95</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" s="2" t="n">
+      <c r="B503" s="2">
         <v>43847</v>
       </c>
-      <c r="C503" t="n">
+      <c r="C503">
         <v>229</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" s="2" t="n">
+      <c r="B504" s="2">
         <v>43851</v>
       </c>
-      <c r="C504" t="n">
+      <c r="C504">
         <v>230.03</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" s="2" t="n">
+      <c r="B505" s="2">
         <v>43852</v>
       </c>
-      <c r="C505" t="n">
+      <c r="C505">
         <v>229.98</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" s="2" t="n">
+      <c r="B506" s="2">
         <v>43853</v>
       </c>
-      <c r="C506" t="n">
+      <c r="C506">
         <v>230.72</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" s="2" t="n">
+      <c r="B507" s="2">
         <v>43854</v>
       </c>
-      <c r="C507" t="n">
+      <c r="C507">
         <v>229.09</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" s="2" t="n">
+      <c r="B508" s="2">
         <v>43857</v>
       </c>
-      <c r="C508" t="n">
+      <c r="C508">
         <v>228.29</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" s="2" t="n">
+      <c r="B509" s="2">
         <v>43858</v>
       </c>
-      <c r="C509" t="n">
+      <c r="C509">
         <v>230.93</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" s="2" t="n">
+      <c r="B510" s="2">
         <v>43859</v>
       </c>
-      <c r="C510" t="n">
+      <c r="C510">
         <v>231.08</v>
       </c>
     </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" s="2" t="n">
+      <c r="B511" s="2">
         <v>43860</v>
       </c>
-      <c r="C511" t="n">
+      <c r="C511">
         <v>229.87</v>
       </c>
     </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" s="2" t="n">
+      <c r="B512" s="2">
         <v>43861</v>
       </c>
-      <c r="C512" t="n">
+      <c r="C512">
         <v>225.24</v>
       </c>
     </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" s="2" t="n">
+      <c r="B513" s="2">
         <v>43864</v>
       </c>
-      <c r="C513" t="n">
+      <c r="C513">
         <v>228.64</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" s="2" t="n">
+      <c r="B514" s="2">
         <v>43865</v>
       </c>
-      <c r="C514" t="n">
+      <c r="C514">
         <v>232.05</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" s="2" t="n">
+      <c r="B515" s="2">
         <v>43866</v>
       </c>
-      <c r="C515" t="n">
+      <c r="C515">
         <v>235.12</v>
       </c>
     </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" s="2" t="n">
+      <c r="B516" s="2">
         <v>43867</v>
       </c>
-      <c r="C516" t="n">
+      <c r="C516">
         <v>235.84</v>
       </c>
     </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" s="2" t="n">
+      <c r="B517" s="2">
         <v>43868</v>
       </c>
-      <c r="C517" t="n">
+      <c r="C517">
         <v>234.32</v>
       </c>
     </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" s="2" t="n">
+      <c r="B518" s="2">
         <v>43871</v>
       </c>
-      <c r="C518" t="n">
+      <c r="C518">
         <v>237.59</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" s="2" t="n">
+      <c r="B519" s="2">
         <v>43872</v>
       </c>
-      <c r="C519" t="n">
+      <c r="C519">
         <v>238.61</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" s="2" t="n">
+      <c r="B520" s="2">
         <v>43873</v>
       </c>
-      <c r="C520" t="n">
+      <c r="C520">
         <v>238.56</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" s="2" t="n">
+      <c r="B521" s="2">
         <v>43874</v>
       </c>
-      <c r="C521" t="n">
+      <c r="C521">
         <v>239.32</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522" s="2" t="n">
+      <c r="B522" s="2">
         <v>43875</v>
       </c>
-      <c r="C522" t="n">
+      <c r="C522">
         <v>241.96</v>
       </c>
     </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" s="2" t="n">
+      <c r="B523" s="2">
         <v>43879</v>
       </c>
-      <c r="C523" t="n">
+      <c r="C523">
         <v>240.88</v>
       </c>
     </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" s="2" t="n">
+      <c r="B524" s="2">
         <v>43880</v>
       </c>
-      <c r="C524" t="n">
+      <c r="C524">
         <v>240.58</v>
       </c>
     </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" s="2" t="n">
+      <c r="B525" s="2">
         <v>43881</v>
       </c>
-      <c r="C525" t="n">
+      <c r="C525">
         <v>243.92</v>
       </c>
     </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" s="2" t="n">
+      <c r="B526" s="2">
         <v>43882</v>
       </c>
-      <c r="C526" t="n">
+      <c r="C526">
         <v>242.26</v>
       </c>
     </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527" s="2" t="n">
+      <c r="B527" s="2">
         <v>43885</v>
       </c>
-      <c r="C527" t="n">
+      <c r="C527">
         <v>236.69</v>
       </c>
     </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528" s="2" t="n">
+      <c r="B528" s="2">
         <v>43886</v>
       </c>
-      <c r="C528" t="n">
+      <c r="C528">
         <v>234.4</v>
       </c>
     </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529" s="2" t="n">
+      <c r="B529" s="2">
         <v>43887</v>
       </c>
-      <c r="C529" t="n">
+      <c r="C529">
         <v>232.33</v>
       </c>
     </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530" s="2" t="n">
+      <c r="B530" s="2">
         <v>43888</v>
       </c>
-      <c r="C530" t="n">
+      <c r="C530">
         <v>221.91</v>
       </c>
     </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531" s="2" t="n">
+      <c r="B531" s="2">
         <v>43889</v>
       </c>
-      <c r="C531" t="n">
+      <c r="C531">
         <v>215.11</v>
       </c>
     </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" s="2" t="n">
+      <c r="B532" s="2">
         <v>43892</v>
       </c>
-      <c r="C532" t="n">
+      <c r="C532">
         <v>227.06</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" s="2" t="n">
+      <c r="B533" s="2">
         <v>43893</v>
       </c>
-      <c r="C533" t="n">
+      <c r="C533">
         <v>225.08</v>
       </c>
     </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" s="2" t="n">
+      <c r="B534" s="2">
         <v>43894</v>
       </c>
-      <c r="C534" t="n">
+      <c r="C534">
         <v>238.06</v>
       </c>
     </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B535" s="2" t="n">
+      <c r="B535" s="2">
         <v>43895</v>
       </c>
-      <c r="C535" t="n">
+      <c r="C535">
         <v>231.86</v>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
         <v>534</v>
       </c>
-      <c r="B536" s="2" t="n">
+      <c r="B536" s="2">
         <v>43896</v>
       </c>
-      <c r="C536" t="n">
+      <c r="C536">
         <v>225.64</v>
       </c>
     </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
         <v>535</v>
       </c>
-      <c r="B537" s="2" t="n">
+      <c r="B537" s="2">
         <v>43899</v>
       </c>
-      <c r="C537" t="n">
+      <c r="C537">
         <v>207.82</v>
       </c>
     </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
         <v>536</v>
       </c>
-      <c r="B538" s="2" t="n">
+      <c r="B538" s="2">
         <v>43900</v>
       </c>
-      <c r="C538" t="n">
+      <c r="C538">
         <v>222.87</v>
       </c>
     </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
         <v>537</v>
       </c>
-      <c r="B539" s="2" t="n">
+      <c r="B539" s="2">
         <v>43901</v>
       </c>
-      <c r="C539" t="n">
+      <c r="C539">
         <v>211.63</v>
       </c>
     </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
         <v>538</v>
       </c>
-      <c r="B540" s="2" t="n">
+      <c r="B540" s="2">
         <v>43902</v>
       </c>
-      <c r="C540" t="n">
+      <c r="C540">
         <v>189.46</v>
       </c>
     </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B541" s="2" t="n">
+      <c r="B541" s="2">
         <v>43903</v>
       </c>
-      <c r="C541" t="n">
+      <c r="C541">
         <v>204.45</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
         <v>540</v>
       </c>
-      <c r="B542" s="2" t="n">
+      <c r="B542" s="2">
         <v>43906</v>
       </c>
-      <c r="C542" t="n">
+      <c r="C542">
         <v>163.98</v>
       </c>
     </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
         <v>541</v>
       </c>
-      <c r="B543" s="2" t="n">
+      <c r="B543" s="2">
         <v>43907</v>
       </c>
-      <c r="C543" t="n">
+      <c r="C543">
         <v>172.61</v>
       </c>
     </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
         <v>542</v>
       </c>
-      <c r="B544" s="2" t="n">
+      <c r="B544" s="2">
         <v>43908</v>
       </c>
-      <c r="C544" t="n">
+      <c r="C544">
         <v>154.71</v>
       </c>
     </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
         <v>543</v>
       </c>
-      <c r="B545" s="2" t="n">
+      <c r="B545" s="2">
         <v>43909</v>
       </c>
-      <c r="C545" t="n">
-        <v>160.17</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
+      <c r="C545">
+        <v>160.16999999999999</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
         <v>544</v>
       </c>
-      <c r="B546" s="2" t="n">
+      <c r="B546" s="2">
         <v>43910</v>
       </c>
-      <c r="C546" t="n">
+      <c r="C546">
         <v>151.25</v>
       </c>
     </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
         <v>545</v>
       </c>
-      <c r="B547" s="2" t="n">
+      <c r="B547" s="2">
         <v>43913</v>
       </c>
-      <c r="C547" t="n">
+      <c r="C547">
         <v>161.43</v>
       </c>
     </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
         <v>546</v>
       </c>
-      <c r="B548" s="2" t="n">
+      <c r="B548" s="2">
         <v>43914</v>
       </c>
-      <c r="C548" t="n">
+      <c r="C548">
         <v>183.62</v>
       </c>
     </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
         <v>547</v>
       </c>
-      <c r="B549" s="2" t="n">
+      <c r="B549" s="2">
         <v>43915</v>
       </c>
-      <c r="C549" t="n">
+      <c r="C549">
         <v>180.68</v>
       </c>
     </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
         <v>548</v>
       </c>
-      <c r="B550" s="2" t="n">
+      <c r="B550" s="2">
         <v>43916</v>
       </c>
-      <c r="C550" t="n">
+      <c r="C550">
         <v>194.05</v>
       </c>
     </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
         <v>549</v>
       </c>
-      <c r="B551" s="2" t="n">
+      <c r="B551" s="2">
         <v>43917</v>
       </c>
-      <c r="C551" t="n">
+      <c r="C551">
         <v>189.42</v>
       </c>
     </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
         <v>550</v>
       </c>
-      <c r="B552" s="2" t="n">
+      <c r="B552" s="2">
         <v>43920</v>
       </c>
-      <c r="C552" t="n">
+      <c r="C552">
         <v>194.94</v>
       </c>
     </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
         <v>551</v>
       </c>
-      <c r="B553" s="2" t="n">
+      <c r="B553" s="2">
         <v>43921</v>
       </c>
-      <c r="C553" t="n">
+      <c r="C553">
         <v>185.6</v>
       </c>
     </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
         <v>552</v>
       </c>
-      <c r="B554" s="2" t="n">
+      <c r="B554" s="2">
         <v>43922</v>
       </c>
-      <c r="C554" t="n">
+      <c r="C554">
         <v>177.57</v>
       </c>
     </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
         <v>553</v>
       </c>
-      <c r="B555" s="2" t="n">
+      <c r="B555" s="2">
         <v>43923</v>
       </c>
-      <c r="C555" t="n">
+      <c r="C555">
         <v>180.23</v>
       </c>
     </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
         <v>554</v>
       </c>
-      <c r="B556" s="2" t="n">
+      <c r="B556" s="2">
         <v>43924</v>
       </c>
-      <c r="C556" t="n">
+      <c r="C556">
         <v>177.64</v>
       </c>
     </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
         <v>555</v>
       </c>
-      <c r="B557" s="2" t="n">
+      <c r="B557" s="2">
         <v>43927</v>
       </c>
-      <c r="C557" t="n">
+      <c r="C557">
         <v>190.19</v>
       </c>
     </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
         <v>556</v>
       </c>
-      <c r="B558" s="2" t="n">
+      <c r="B558" s="2">
         <v>43928</v>
       </c>
-      <c r="C558" t="n">
+      <c r="C558">
         <v>191.15</v>
       </c>
     </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
         <v>557</v>
       </c>
-      <c r="B559" s="2" t="n">
+      <c r="B559" s="2">
         <v>43929</v>
       </c>
-      <c r="C559" t="n">
+      <c r="C559">
         <v>193.66</v>
       </c>
     </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
         <v>558</v>
       </c>
-      <c r="B560" s="2" t="n">
+      <c r="B560" s="2">
         <v>43930</v>
       </c>
-      <c r="C560" t="n">
+      <c r="C560">
         <v>200.33</v>
       </c>
     </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
         <v>559</v>
       </c>
-      <c r="B561" s="2" t="n">
+      <c r="B561" s="2">
         <v>43934</v>
       </c>
-      <c r="C561" t="n">
+      <c r="C561">
         <v>197.61</v>
       </c>
     </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
         <v>560</v>
       </c>
-      <c r="B562" s="2" t="n">
+      <c r="B562" s="2">
         <v>43935</v>
       </c>
-      <c r="C562" t="n">
+      <c r="C562">
         <v>205.94</v>
       </c>
     </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
         <v>561</v>
       </c>
-      <c r="B563" s="2" t="n">
+      <c r="B563" s="2">
         <v>43936</v>
       </c>
-      <c r="C563" t="n">
+      <c r="C563">
         <v>197.3</v>
       </c>
     </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
         <v>562</v>
       </c>
-      <c r="B564" s="2" t="n">
+      <c r="B564" s="2">
         <v>43937</v>
       </c>
-      <c r="C564" t="n">
+      <c r="C564">
         <v>198.66</v>
       </c>
     </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
         <v>563</v>
       </c>
-      <c r="B565" s="2" t="n">
+      <c r="B565" s="2">
         <v>43938</v>
       </c>
-      <c r="C565" t="n">
+      <c r="C565">
         <v>208.18</v>
       </c>
     </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
         <v>564</v>
       </c>
-      <c r="B566" s="2" t="n">
+      <c r="B566" s="2">
         <v>43941</v>
       </c>
-      <c r="C566" t="n">
+      <c r="C566">
         <v>204.83</v>
       </c>
     </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
         <v>565</v>
       </c>
-      <c r="B567" s="2" t="n">
+      <c r="B567" s="2">
         <v>43942</v>
       </c>
-      <c r="C567" t="n">
+      <c r="C567">
         <v>199.42</v>
       </c>
     </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
         <v>566</v>
       </c>
-      <c r="B568" s="2" t="n">
+      <c r="B568" s="2">
         <v>43943</v>
       </c>
-      <c r="C568" t="n">
+      <c r="C568">
         <v>202.96</v>
       </c>
     </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
         <v>567</v>
       </c>
-      <c r="B569" s="2" t="n">
+      <c r="B569" s="2">
         <v>43944</v>
       </c>
-      <c r="C569" t="n">
+      <c r="C569">
         <v>201.12</v>
       </c>
     </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
         <v>568</v>
       </c>
-      <c r="B570" s="2" t="n">
+      <c r="B570" s="2">
         <v>43945</v>
       </c>
-      <c r="C570" t="n">
+      <c r="C570">
         <v>210.92</v>
       </c>
     </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
         <v>569</v>
       </c>
-      <c r="B571" s="2" t="n">
+      <c r="B571" s="2">
         <v>43948</v>
       </c>
-      <c r="C571" t="n">
+      <c r="C571">
         <v>216.47</v>
       </c>
     </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
         <v>570</v>
       </c>
-      <c r="B572" s="2" t="n">
+      <c r="B572" s="2">
         <v>43949</v>
       </c>
-      <c r="C572" t="n">
+      <c r="C572">
         <v>216.34</v>
       </c>
     </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
         <v>571</v>
       </c>
-      <c r="B573" s="2" t="n">
+      <c r="B573" s="2">
         <v>43950</v>
       </c>
-      <c r="C573" t="n">
+      <c r="C573">
         <v>220.49</v>
       </c>
     </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
         <v>572</v>
       </c>
-      <c r="B574" s="2" t="n">
+      <c r="B574" s="2">
         <v>43951</v>
       </c>
-      <c r="C574" t="n">
+      <c r="C574">
         <v>218.53</v>
       </c>
     </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
         <v>573</v>
       </c>
-      <c r="B575" s="2" t="n">
+      <c r="B575" s="2">
         <v>43952</v>
       </c>
-      <c r="C575" t="n">
+      <c r="C575">
         <v>217.27</v>
       </c>
     </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
         <v>574</v>
       </c>
-      <c r="B576" s="2" t="n">
+      <c r="B576" s="2">
         <v>43955</v>
       </c>
-      <c r="C576" t="n">
+      <c r="C576">
         <v>220.52</v>
       </c>
     </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B577" s="2" t="n">
+      <c r="B577" s="2">
         <v>43956</v>
       </c>
-      <c r="C577" t="n">
+      <c r="C577">
         <v>224.27</v>
       </c>
     </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B578" s="2" t="n">
+      <c r="B578" s="2">
         <v>43957</v>
       </c>
-      <c r="C578" t="n">
+      <c r="C578">
         <v>222.59</v>
       </c>
     </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B579" s="2" t="n">
+      <c r="B579" s="2">
         <v>43958</v>
       </c>
-      <c r="C579" t="n">
+      <c r="C579">
         <v>228.09</v>
       </c>
     </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B580" s="2" t="n">
+      <c r="B580" s="2">
         <v>43959</v>
       </c>
-      <c r="C580" t="n">
+      <c r="C580">
         <v>233.04</v>
       </c>
     </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
         <v>579</v>
       </c>
-      <c r="B581" s="2" t="n">
+      <c r="B581" s="2">
         <v>43962</v>
       </c>
-      <c r="C581" t="n">
+      <c r="C581">
         <v>235.16</v>
       </c>
     </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
         <v>580</v>
       </c>
-      <c r="B582" s="2" t="n">
+      <c r="B582" s="2">
         <v>43963</v>
       </c>
-      <c r="C582" t="n">
+      <c r="C582">
         <v>231.52</v>
       </c>
     </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
         <v>581</v>
       </c>
-      <c r="B583" s="2" t="n">
+      <c r="B583" s="2">
         <v>43964</v>
       </c>
-      <c r="C583" t="n">
+      <c r="C583">
         <v>228.73</v>
       </c>
     </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
         <v>582</v>
       </c>
-      <c r="B584" s="2" t="n">
+      <c r="B584" s="2">
         <v>43965</v>
       </c>
-      <c r="C584" t="n">
+      <c r="C584">
         <v>233.09</v>
       </c>
     </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
         <v>583</v>
       </c>
-      <c r="B585" s="2" t="n">
+      <c r="B585" s="2">
         <v>43966</v>
       </c>
-      <c r="C585" t="n">
+      <c r="C585">
         <v>237.91</v>
       </c>
     </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B586" s="2" t="n">
+      <c r="B586" s="2">
         <v>43969</v>
       </c>
-      <c r="C586" t="n">
+      <c r="C586">
         <v>243.89</v>
       </c>
     </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B587" s="2" t="n">
+      <c r="B587" s="2">
         <v>43970</v>
       </c>
-      <c r="C587" t="n">
+      <c r="C587">
         <v>236.69</v>
       </c>
     </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B588" s="2" t="n">
+      <c r="B588" s="2">
         <v>43971</v>
       </c>
-      <c r="C588" t="n">
+      <c r="C588">
         <v>236.78</v>
       </c>
     </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B589" s="2" t="n">
+      <c r="B589" s="2">
         <v>43972</v>
       </c>
-      <c r="C589" t="n">
+      <c r="C589">
         <v>239.45</v>
       </c>
     </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
         <v>588</v>
       </c>
-      <c r="B590" s="2" t="n">
+      <c r="B590" s="2">
         <v>43973</v>
       </c>
-      <c r="C590" t="n">
+      <c r="C590">
         <v>240.44</v>
       </c>
     </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
         <v>589</v>
       </c>
-      <c r="B591" s="2" t="n">
+      <c r="B591" s="2">
         <v>43977</v>
       </c>
-      <c r="C591" t="n">
+      <c r="C591">
         <v>241.04</v>
       </c>
     </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
         <v>590</v>
       </c>
-      <c r="B592" s="2" t="n">
+      <c r="B592" s="2">
         <v>43978</v>
       </c>
-      <c r="C592" t="n">
+      <c r="C592">
         <v>245.89</v>
       </c>
     </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
         <v>591</v>
       </c>
-      <c r="B593" s="2" t="n">
+      <c r="B593" s="2">
         <v>43979</v>
       </c>
-      <c r="C593" t="n">
+      <c r="C593">
         <v>243.68</v>
       </c>
     </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
         <v>592</v>
       </c>
-      <c r="B594" s="2" t="n">
+      <c r="B594" s="2">
         <v>43980</v>
       </c>
-      <c r="C594" t="n">
+      <c r="C594">
         <v>247.01</v>
       </c>
     </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
         <v>593</v>
       </c>
-      <c r="B595" s="2" t="n">
+      <c r="B595" s="2">
         <v>43983</v>
       </c>
-      <c r="C595" t="n">
+      <c r="C595">
         <v>245.82</v>
       </c>
     </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
         <v>594</v>
       </c>
-      <c r="B596" s="2" t="n">
+      <c r="B596" s="2">
         <v>43984</v>
       </c>
-      <c r="C596" t="n">
+      <c r="C596">
         <v>251.21</v>
       </c>
     </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
         <v>595</v>
       </c>
-      <c r="B597" s="2" t="n">
+      <c r="B597" s="2">
         <v>43985</v>
       </c>
-      <c r="C597" t="n">
+      <c r="C597">
         <v>251</v>
       </c>
     </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
         <v>596</v>
       </c>
-      <c r="B598" s="2" t="n">
+      <c r="B598" s="2">
         <v>43986</v>
       </c>
-      <c r="C598" t="n">
+      <c r="C598">
         <v>248.95</v>
       </c>
     </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
         <v>597</v>
       </c>
-      <c r="B599" s="2" t="n">
+      <c r="B599" s="2">
         <v>43987</v>
       </c>
-      <c r="C599" t="n">
+      <c r="C599">
         <v>254.9</v>
       </c>
     </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
         <v>598</v>
       </c>
-      <c r="B600" s="2" t="n">
+      <c r="B600" s="2">
         <v>43990</v>
       </c>
-      <c r="C600" t="n">
+      <c r="C600">
         <v>256.77</v>
       </c>
     </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
         <v>599</v>
       </c>
-      <c r="B601" s="2" t="n">
+      <c r="B601" s="2">
         <v>43991</v>
       </c>
-      <c r="C601" t="n">
+      <c r="C601">
         <v>256.76</v>
       </c>
     </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
         <v>600</v>
       </c>
-      <c r="B602" s="2" t="n">
+      <c r="B602" s="2">
         <v>43992</v>
       </c>
-      <c r="C602" t="n">
+      <c r="C602">
         <v>254.45</v>
       </c>
     </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
         <v>601</v>
       </c>
-      <c r="B603" s="2" t="n">
+      <c r="B603" s="2">
         <v>43993</v>
       </c>
-      <c r="C603" t="n">
+      <c r="C603">
         <v>239.47</v>
       </c>
     </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
         <v>602</v>
       </c>
-      <c r="B604" s="2" t="n">
+      <c r="B604" s="2">
         <v>43994</v>
       </c>
-      <c r="C604" t="n">
+      <c r="C604">
         <v>242.45</v>
       </c>
     </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
         <v>603</v>
       </c>
-      <c r="B605" s="2" t="n">
+      <c r="B605" s="2">
         <v>43997</v>
       </c>
-      <c r="C605" t="n">
+      <c r="C605">
         <v>241.36</v>
       </c>
     </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
         <v>604</v>
       </c>
-      <c r="B606" s="2" t="n">
+      <c r="B606" s="2">
         <v>43998</v>
       </c>
-      <c r="C606" t="n">
+      <c r="C606">
         <v>249.95</v>
       </c>
     </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
         <v>605</v>
       </c>
-      <c r="B607" s="2" t="n">
+      <c r="B607" s="2">
         <v>43999</v>
       </c>
-      <c r="C607" t="n">
+      <c r="C607">
         <v>250.85</v>
       </c>
     </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
         <v>606</v>
       </c>
-      <c r="B608" s="2" t="n">
+      <c r="B608" s="2">
         <v>44000</v>
       </c>
-      <c r="C608" t="n">
+      <c r="C608">
         <v>249.21</v>
       </c>
     </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
         <v>607</v>
       </c>
-      <c r="B609" s="2" t="n">
+      <c r="B609" s="2">
         <v>44001</v>
       </c>
-      <c r="C609" t="n">
+      <c r="C609">
         <v>246.65</v>
       </c>
     </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
         <v>608</v>
       </c>
-      <c r="B610" s="2" t="n">
+      <c r="B610" s="2">
         <v>44004</v>
       </c>
-      <c r="C610" t="n">
+      <c r="C610">
         <v>249.16</v>
       </c>
     </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
         <v>609</v>
       </c>
-      <c r="B611" s="2" t="n">
+      <c r="B611" s="2">
         <v>44005</v>
       </c>
-      <c r="C611" t="n">
+      <c r="C611">
         <v>250.31</v>
       </c>
     </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
         <v>610</v>
       </c>
-      <c r="B612" s="2" t="n">
+      <c r="B612" s="2">
         <v>44006</v>
       </c>
-      <c r="C612" t="n">
+      <c r="C612">
         <v>246.13</v>
       </c>
     </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
         <v>611</v>
       </c>
-      <c r="B613" s="2" t="n">
+      <c r="B613" s="2">
         <v>44007</v>
       </c>
-      <c r="C613" t="n">
+      <c r="C613">
         <v>245.38</v>
       </c>
     </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
         <v>612</v>
       </c>
-      <c r="B614" s="2" t="n">
+      <c r="B614" s="2">
         <v>44008</v>
       </c>
-      <c r="C614" t="n">
+      <c r="C614">
         <v>241.01</v>
       </c>
     </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
         <v>613</v>
       </c>
-      <c r="B615" s="2" t="n">
+      <c r="B615" s="2">
         <v>44011</v>
       </c>
-      <c r="C615" t="n">
+      <c r="C615">
         <v>246.12</v>
       </c>
     </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
         <v>614</v>
       </c>
-      <c r="B616" s="2" t="n">
+      <c r="B616" s="2">
         <v>44012</v>
       </c>
-      <c r="C616" t="n">
+      <c r="C616">
         <v>250.51</v>
       </c>
     </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
         <v>615</v>
       </c>
-      <c r="B617" s="2" t="n">
+      <c r="B617" s="2">
         <v>44013</v>
       </c>
-      <c r="C617" t="n">
+      <c r="C617">
         <v>248.15</v>
       </c>
     </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
         <v>616</v>
       </c>
-      <c r="B618" s="2" t="n">
+      <c r="B618" s="2">
         <v>44014</v>
       </c>
-      <c r="C618" t="n">
+      <c r="C618">
         <v>248.5</v>
       </c>
     </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
         <v>617</v>
       </c>
-      <c r="B619" s="2" t="n">
+      <c r="B619" s="2">
         <v>44018</v>
       </c>
-      <c r="C619" t="n">
+      <c r="C619">
         <v>249.55</v>
       </c>
     </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
         <v>618</v>
       </c>
-      <c r="B620" s="2" t="n">
+      <c r="B620" s="2">
         <v>44019</v>
       </c>
-      <c r="C620" t="n">
+      <c r="C620">
         <v>247.35</v>
       </c>
     </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
         <v>619</v>
       </c>
-      <c r="B621" s="2" t="n">
+      <c r="B621" s="2">
         <v>44020</v>
       </c>
-      <c r="C621" t="n">
+      <c r="C621">
         <v>249.17</v>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
         <v>620</v>
       </c>
-      <c r="B622" s="2" t="n">
+      <c r="B622" s="2">
         <v>44021</v>
       </c>
-      <c r="C622" t="n">
+      <c r="C622">
         <v>247.96</v>
       </c>
     </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
         <v>621</v>
       </c>
-      <c r="B623" s="2" t="n">
+      <c r="B623" s="2">
         <v>44022</v>
       </c>
-      <c r="C623" t="n">
+      <c r="C623">
         <v>250.11</v>
       </c>
     </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
         <v>622</v>
       </c>
-      <c r="B624" s="2" t="n">
+      <c r="B624" s="2">
         <v>44025</v>
       </c>
-      <c r="C624" t="n">
+      <c r="C624">
         <v>249.62</v>
       </c>
     </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
         <v>623</v>
       </c>
-      <c r="B625" s="2" t="n">
+      <c r="B625" s="2">
         <v>44026</v>
       </c>
-      <c r="C625" t="n">
-        <v>257.79</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
+      <c r="C625">
+        <v>257.79000000000002</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
         <v>624</v>
       </c>
-      <c r="B626" s="2" t="n">
+      <c r="B626" s="2">
         <v>44027</v>
       </c>
-      <c r="C626" t="n">
+      <c r="C626">
         <v>257.8</v>
       </c>
     </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
         <v>625</v>
       </c>
-      <c r="B627" s="2" t="n">
+      <c r="B627" s="2">
         <v>44028</v>
       </c>
-      <c r="C627" t="n">
+      <c r="C627">
         <v>258.08</v>
       </c>
     </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
         <v>626</v>
       </c>
-      <c r="B628" s="2" t="n">
+      <c r="B628" s="2">
         <v>44029</v>
       </c>
-      <c r="C628" t="n">
+      <c r="C628">
         <v>260.38</v>
       </c>
     </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
         <v>627</v>
       </c>
-      <c r="B629" s="2" t="n">
+      <c r="B629" s="2">
         <v>44032</v>
       </c>
-      <c r="C629" t="n">
+      <c r="C629">
         <v>260.17</v>
       </c>
     </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
         <v>628</v>
       </c>
-      <c r="B630" s="2" t="n">
+      <c r="B630" s="2">
         <v>44033</v>
       </c>
-      <c r="C630" t="n">
+      <c r="C630">
         <v>262.42</v>
       </c>
     </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
         <v>629</v>
       </c>
-      <c r="B631" s="2" t="n">
+      <c r="B631" s="2">
         <v>44034</v>
       </c>
-      <c r="C631" t="n">
+      <c r="C631">
         <v>265.17</v>
       </c>
     </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
         <v>630</v>
       </c>
-      <c r="B632" s="2" t="n">
+      <c r="B632" s="2">
         <v>44035</v>
       </c>
-      <c r="C632" t="n">
+      <c r="C632">
         <v>263.81</v>
       </c>
     </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
         <v>631</v>
       </c>
-      <c r="B633" s="2" t="n">
+      <c r="B633" s="2">
         <v>44036</v>
       </c>
-      <c r="C633" t="n">
+      <c r="C633">
         <v>265.31</v>
       </c>
     </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
         <v>632</v>
       </c>
-      <c r="B634" s="2" t="n">
+      <c r="B634" s="2">
         <v>44039</v>
       </c>
-      <c r="C634" t="n">
+      <c r="C634">
         <v>267.42</v>
       </c>
     </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
         <v>633</v>
       </c>
-      <c r="B635" s="2" t="n">
+      <c r="B635" s="2">
         <v>44040</v>
       </c>
-      <c r="C635" t="n">
-        <v>265.28</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
+      <c r="C635">
+        <v>265.27999999999997</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
         <v>634</v>
       </c>
-      <c r="B636" s="2" t="n">
+      <c r="B636" s="2">
         <v>44041</v>
       </c>
-      <c r="C636" t="n">
-        <v>264.66</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
+      <c r="C636">
+        <v>264.66000000000003</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
         <v>635</v>
       </c>
-      <c r="B637" s="2" t="n">
+      <c r="B637" s="2">
         <v>44042</v>
       </c>
-      <c r="C637" t="n">
+      <c r="C637">
         <v>266.31</v>
       </c>
     </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
         <v>636</v>
       </c>
-      <c r="B638" s="2" t="n">
+      <c r="B638" s="2">
         <v>44043</v>
       </c>
-      <c r="C638" t="n">
+      <c r="C638">
         <v>265.49</v>
       </c>
     </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
         <v>637</v>
       </c>
-      <c r="B639" s="2" t="n">
+      <c r="B639" s="2">
         <v>44046</v>
       </c>
-      <c r="C639" t="n">
+      <c r="C639">
         <v>266.18</v>
       </c>
     </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
         <v>638</v>
       </c>
-      <c r="B640" s="2" t="n">
+      <c r="B640" s="2">
         <v>44047</v>
       </c>
-      <c r="C640" t="n">
+      <c r="C640">
         <v>267.87</v>
       </c>
     </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
         <v>639</v>
       </c>
-      <c r="B641" s="2" t="n">
+      <c r="B641" s="2">
         <v>44048</v>
       </c>
-      <c r="C641" t="n">
+      <c r="C641">
         <v>267.48</v>
       </c>
     </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
         <v>640</v>
       </c>
-      <c r="B642" s="2" t="n">
+      <c r="B642" s="2">
         <v>44049</v>
       </c>
-      <c r="C642" t="n">
+      <c r="C642">
         <v>269.37</v>
       </c>
     </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
         <v>641</v>
       </c>
-      <c r="B643" s="2" t="n">
+      <c r="B643" s="2">
         <v>44050</v>
       </c>
-      <c r="C643" t="n">
+      <c r="C643">
         <v>271.64</v>
       </c>
     </row>
